--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="206">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -229,6 +229,57 @@
     <t xml:space="preserve">有如圣者的容颜。  </t>
   </si>
   <si>
+    <t xml:space="preserve">她负责整个委员会。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他入选了这个委员会。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们成立了一个委员会。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他无法承诺任何事情。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她承诺要进行卫生改革。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">新任少校承诺结束暴力。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">扫舱包干费  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">地方财政包干制。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我不知道他拿公事包干什么了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在80年代，政府引进了包干制来激励国有企业最大化产出。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他珍惜手工制的意大利西装。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我儿子学习很差，得教训教训他了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我从这件事中吸取了教训。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">未成年人犯罪令人警省，发人深思。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这幅画的意象非常发人深思。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这块地的地下水层已经接近干枯，需要进行治理了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">小河干枯了。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -430,6 +481,57 @@
     <t>The features of a saint.</t>
   </si>
   <si>
+    <t>She took on the whole committee.</t>
+  </si>
+  <si>
+    <t>He was elected to the committee.</t>
+  </si>
+  <si>
+    <t>They set up a committee.</t>
+  </si>
+  <si>
+    <t>He couldn't promise anything.</t>
+  </si>
+  <si>
+    <t>She was committed to health reform.</t>
+  </si>
+  <si>
+    <t>The new major promised an end to the violence.</t>
+  </si>
+  <si>
+    <t>lieu of hold cleaning.</t>
+  </si>
+  <si>
+    <t>System whereby local authorities take full responsibility for their finances.</t>
+  </si>
+  <si>
+    <t>What he did with it, I have no idea.</t>
+  </si>
+  <si>
+    <t>In the 1980s, the government introduces the responsibility system to induce SOEs maximizing the total output.</t>
+  </si>
+  <si>
+    <t>He appreciates handmade Italian suits.</t>
+  </si>
+  <si>
+    <t>I need to lecture my son about his low grades.</t>
+  </si>
+  <si>
+    <t>I drew lessons from this.</t>
+  </si>
+  <si>
+    <t>Juvenile delinquency should make us reflect on the current situation.</t>
+  </si>
+  <si>
+    <t>The iconography of this picture is fascinating.</t>
+  </si>
+  <si>
+    <t>The water table of this land has nearly dried up, and needs treatment.</t>
+  </si>
+  <si>
+    <t>The stream has dried up.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -502,10 +604,34 @@
     <t>容颜</t>
   </si>
   <si>
+    <t>委员会</t>
+  </si>
+  <si>
+    <t>承诺</t>
+  </si>
+  <si>
+    <t>包干</t>
+  </si>
+  <si>
+    <t>包干制</t>
+  </si>
+  <si>
+    <t>教训</t>
+  </si>
+  <si>
+    <t>发人深思</t>
+  </si>
+  <si>
+    <t>干枯</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
@@ -863,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,13 +1014,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -902,13 +1028,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -916,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -930,13 +1056,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -944,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -958,13 +1084,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -972,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -986,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1000,13 +1126,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1014,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1028,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1042,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1056,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1070,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1084,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1098,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1112,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1126,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1140,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1154,13 +1280,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1168,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1182,13 +1308,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1196,13 +1322,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1210,13 +1336,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1224,13 +1350,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1238,13 +1364,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1252,13 +1378,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1266,13 +1392,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1280,13 +1406,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1294,13 +1420,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1308,13 +1434,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1322,13 +1448,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1336,13 +1462,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1350,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1364,13 +1490,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1378,13 +1504,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1392,13 +1518,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1406,13 +1532,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1420,13 +1546,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1434,13 +1560,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1448,13 +1574,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1462,13 +1588,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1476,13 +1602,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1490,13 +1616,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1504,13 +1630,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1518,13 +1644,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1532,13 +1658,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1546,13 +1672,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1560,13 +1686,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1574,13 +1700,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1588,13 +1714,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1602,13 +1728,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1616,13 +1742,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1630,13 +1756,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1644,13 +1770,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1658,13 +1784,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1672,13 +1798,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1686,13 +1812,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1700,13 +1826,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1714,13 +1840,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1728,13 +1854,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1742,13 +1868,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1756,13 +1882,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1770,13 +1896,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1784,13 +1910,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1798,13 +1924,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1812,13 +1938,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1826,13 +1952,307 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
         <v>161</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
         <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="270">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -280,6 +280,84 @@
     <t xml:space="preserve">小河干枯了。  </t>
   </si>
   <si>
+    <t xml:space="preserve">他骗取了我的遗产。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遗产由他负责照管。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他继承了父亲的遗产。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润分配不均。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">俄罗斯政府集中分配食物。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这间屋子被分配给我了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">校园内部网  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涉密内部网  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部网的优点在于平台独立性。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他去外地出差。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们班有几个外地学生。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">粤方言外地人很难听懂。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">占住在危楼里的民工不得不搬出来。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这趟火车上，有很多返乡民工和学生。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">民工小学生  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">飞来横祸不胜防。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这简直是飞来横祸。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我知道我们的爱就只是飞来横祸。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售CDS合约与购买债券一样。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他独自生活，会玩玩合约桥牌。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">过期的药已经无效了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对于不合作的人，这是无效的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑重声明  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">没有，但是郑重声明  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">根据事实，她被确定是清白的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">疑犯在被证明有罪之前是清白的。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -532,6 +610,84 @@
     <t>The stream has dried up.</t>
   </si>
   <si>
+    <t>He swindled me out of my inheritance.</t>
+  </si>
+  <si>
+    <t>The inheritance was left in his trust.</t>
+  </si>
+  <si>
+    <t>He inherited his delinquency from his father.</t>
+  </si>
+  <si>
+    <t>Profits were distributed unevenly.</t>
+  </si>
+  <si>
+    <t>The Russian government centralized the distribution of food.</t>
+  </si>
+  <si>
+    <t>The house has been appropriated to me.</t>
+  </si>
+  <si>
+    <t>campus net.</t>
+  </si>
+  <si>
+    <t>information security.</t>
+  </si>
+  <si>
+    <t>The beauty of an Intranet lies in platform independence.</t>
+  </si>
+  <si>
+    <t>He went away on business.</t>
+  </si>
+  <si>
+    <t>Our class has several students from other parts of the country.</t>
+  </si>
+  <si>
+    <t>It is hard for people from other places to understand Cantonese.</t>
+  </si>
+  <si>
+    <t>Labourers living in dangerous houses have to move out.</t>
+  </si>
+  <si>
+    <t>There are many homeward-bound rural laborers and students.</t>
+  </si>
+  <si>
+    <t>migrant workers children.</t>
+  </si>
+  <si>
+    <t>No fence against flail.</t>
+  </si>
+  <si>
+    <t>This is a disaster.</t>
+  </si>
+  <si>
+    <t>I knew that our love wasjust a car crash away.</t>
+  </si>
+  <si>
+    <t>Selling a CDS is like buying a bond.</t>
+  </si>
+  <si>
+    <t>He lives along and plays contract bridge.</t>
+  </si>
+  <si>
+    <t>The expired medicine's effect has been lost.</t>
+  </si>
+  <si>
+    <t>It won't work with that uncooperative attitude.</t>
+  </si>
+  <si>
+    <t>Okay, for the record.</t>
+  </si>
+  <si>
+    <t>There is not, but it would be a missus.</t>
+  </si>
+  <si>
+    <t>Ipso facto, her innocence was established.</t>
+  </si>
+  <si>
+    <t>A suspect is innocent until proven guilty.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -625,6 +781,39 @@
     <t>干枯</t>
   </si>
   <si>
+    <t>遗产</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>争吵</t>
+  </si>
+  <si>
+    <t>内部网</t>
+  </si>
+  <si>
+    <t>外地</t>
+  </si>
+  <si>
+    <t>民工</t>
+  </si>
+  <si>
+    <t>飞来横祸</t>
+  </si>
+  <si>
+    <t>合约</t>
+  </si>
+  <si>
+    <t>无效</t>
+  </si>
+  <si>
+    <t>郑重声明</t>
+  </si>
+  <si>
+    <t>清白</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -632,6 +821,9 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,13 +1206,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1028,13 +1220,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1056,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1084,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1098,13 +1290,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1112,13 +1304,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1126,13 +1318,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1140,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1154,13 +1346,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1168,13 +1360,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1182,13 +1374,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1196,13 +1388,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1210,13 +1402,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1224,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1238,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1252,13 +1444,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1266,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1280,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1294,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1308,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1322,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1336,13 +1528,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1350,13 +1542,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1364,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1378,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1392,13 +1584,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1406,13 +1598,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1420,13 +1612,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1434,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1448,13 +1640,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1462,13 +1654,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1476,13 +1668,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1490,13 +1682,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1504,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1518,13 +1710,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1532,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1546,13 +1738,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1560,13 +1752,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1574,13 +1766,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1588,13 +1780,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1602,13 +1794,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1616,13 +1808,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1630,13 +1822,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1644,13 +1836,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1658,13 +1850,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1672,13 +1864,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1686,13 +1878,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1700,13 +1892,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1714,13 +1906,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1728,13 +1920,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1742,13 +1934,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1756,13 +1948,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1770,13 +1962,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1784,13 +1976,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1798,13 +1990,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1812,13 +2004,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1826,13 +2018,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1840,13 +2032,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1854,13 +2046,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1868,13 +2060,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1882,13 +2074,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1896,13 +2088,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1910,13 +2102,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1924,13 +2116,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1938,13 +2130,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1952,13 +2144,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1966,13 +2158,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1980,13 +2172,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1994,13 +2186,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2008,13 +2200,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2022,13 +2214,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2036,13 +2228,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2050,13 +2242,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2064,13 +2256,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2078,13 +2270,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2092,13 +2284,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2106,13 +2298,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2120,13 +2312,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2134,13 +2326,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2148,13 +2340,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2162,13 +2354,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2176,13 +2368,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2190,13 +2382,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2204,13 +2396,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2218,13 +2410,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2232,13 +2424,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2246,13 +2438,447 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
         <v>202</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C95" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
         <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>260</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="302">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -358,6 +358,45 @@
     <t xml:space="preserve">疑犯在被证明有罪之前是清白的。  </t>
   </si>
   <si>
+    <t xml:space="preserve">他们当选了国会议员。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">人们严重抗议他的当选。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他在迈阿密大会上落选了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">落选候选人  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奥运落选赛  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">约翰本人于6月29日被开除公职。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">党籍, 军籍, 公职都应该开除。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">你要被开除了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他被公司开除了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">学生被学校开除。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">具有讽刺性的是…  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这幅漫画讽刺总统。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他想用讽刺来激怒我们。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -688,6 +727,45 @@
     <t>A suspect is innocent until proven guilty.</t>
   </si>
   <si>
+    <t>They were elected to the parliament.</t>
+  </si>
+  <si>
+    <t>His nomination was hotly protested.</t>
+  </si>
+  <si>
+    <t>He missed the brass ring at the Miami convention.</t>
+  </si>
+  <si>
+    <t>unsuccessful candidate.</t>
+  </si>
+  <si>
+    <t>the Olympic Games Unelection Match.</t>
+  </si>
+  <si>
+    <t>John himself was forced out of office on June 29 th.</t>
+  </si>
+  <si>
+    <t>They should be expelled from the Party, from the army and from public employment.</t>
+  </si>
+  <si>
+    <t>You are about to get the push.</t>
+  </si>
+  <si>
+    <t>He was dismissed by the company.</t>
+  </si>
+  <si>
+    <t>The pupils were dismissed from school.</t>
+  </si>
+  <si>
+    <t>it is ironic that...</t>
+  </si>
+  <si>
+    <t>The drawing caricatured the president.</t>
+  </si>
+  <si>
+    <t>He aims to offend us with his satire.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -814,6 +892,21 @@
     <t>清白</t>
   </si>
   <si>
+    <t>当选</t>
+  </si>
+  <si>
+    <t>落选</t>
+  </si>
+  <si>
+    <t>开除公职</t>
+  </si>
+  <si>
+    <t>开除</t>
+  </si>
+  <si>
+    <t>讽刺</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -824,6 +917,9 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1206,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1220,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1248,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1262,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1276,13 +1372,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1290,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1304,13 +1400,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1318,13 +1414,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1332,13 +1428,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1346,13 +1442,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1360,13 +1456,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1374,13 +1470,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1388,13 +1484,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1402,13 +1498,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1416,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1430,13 +1526,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1444,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1458,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1472,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1486,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1500,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1514,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1528,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1542,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1556,13 +1652,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1570,13 +1666,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1584,13 +1680,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1598,13 +1694,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1612,13 +1708,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1626,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1640,13 +1736,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1654,13 +1750,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1668,13 +1764,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1682,13 +1778,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1696,13 +1792,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1710,13 +1806,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1724,13 +1820,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1738,13 +1834,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1752,13 +1848,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1766,13 +1862,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1780,13 +1876,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1794,13 +1890,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1808,13 +1904,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1822,13 +1918,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1836,13 +1932,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1850,13 +1946,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1864,13 +1960,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1878,13 +1974,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1892,13 +1988,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1906,13 +2002,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1920,13 +2016,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1934,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1948,13 +2044,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1962,13 +2058,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1976,13 +2072,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1990,13 +2086,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2004,13 +2100,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2018,13 +2114,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2032,13 +2128,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2046,13 +2142,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2060,13 +2156,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2074,13 +2170,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2088,13 +2184,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2102,13 +2198,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2116,13 +2212,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2130,13 +2226,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2144,13 +2240,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2158,13 +2254,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2172,13 +2268,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2186,13 +2282,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2200,13 +2296,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2214,13 +2310,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2228,13 +2324,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2242,13 +2338,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2256,13 +2352,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2270,13 +2366,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2284,13 +2380,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2298,13 +2394,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2312,13 +2408,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2326,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2340,13 +2436,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2354,13 +2450,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2368,13 +2464,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2382,13 +2478,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2396,13 +2492,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D87" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2410,13 +2506,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2424,13 +2520,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2438,13 +2534,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2452,13 +2548,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2466,13 +2562,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2480,13 +2576,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2494,13 +2590,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2508,13 +2604,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2522,13 +2618,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2536,13 +2632,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2550,13 +2646,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2564,13 +2660,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2578,13 +2674,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2592,13 +2688,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2606,13 +2702,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2620,13 +2716,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2634,13 +2730,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2648,13 +2744,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2662,13 +2758,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2676,13 +2772,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2690,13 +2786,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2704,13 +2800,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2718,13 +2814,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2732,13 +2828,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2746,13 +2842,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2760,13 +2856,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D113" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2774,13 +2870,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D114" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2788,13 +2884,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2802,13 +2898,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D116" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2816,13 +2912,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2830,13 +2926,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D118" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2844,13 +2940,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2858,13 +2954,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D120" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2872,13 +2968,223 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D121" t="s">
-        <v>269</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" t="s">
+        <v>295</v>
+      </c>
+      <c r="D132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+      <c r="D133" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>247</v>
+      </c>
+      <c r="C134" t="s">
+        <v>296</v>
+      </c>
+      <c r="D134" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+      <c r="D135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="363">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -397,6 +397,81 @@
     <t xml:space="preserve">他想用讽刺来激怒我们。  </t>
   </si>
   <si>
+    <t xml:space="preserve">存在即被感知。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我打个电话即到。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">康熙一继位即命人修史。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这个化学反应产生很多热量。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">气体之间通过热对流传导热量。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">热力学定律解释了热量转化的原理。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">要想身体健康，就要多注意饮食营养配比。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生石灰配比  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵金属配比  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">桌子摆放得很起眼儿。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">茶几摆放得非常合适。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这些家具都毫无用处地摆放着。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们肯定要摄入大量的水份。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在健康状态下，液体的摄入与排出应是均衡的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">表4是一个典型的一天食物摄入的范例。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腹鳍对应着四足动物的后肢。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蝙蝠的翅膀和人的胳膊是对应的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们可以发现这些抗体是特定对应每种蛋白质的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">除此以外  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">好除此以外  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">除此以外，看不出还有什么别的原因会使她与达切发生一段短暂的、充满不安的恋情。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利益逐渐消失。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">风逐渐停了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">利润逐渐下滑。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">习惯是后天养成的。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -766,6 +841,84 @@
     <t>He aims to offend us with his satire.</t>
   </si>
   <si>
+    <t>Being is being perceived.</t>
+  </si>
+  <si>
+    <t>I will be there immediately – I just have to make a phone call.</t>
+  </si>
+  <si>
+    <t>Kang Xi ordered people to compile historical books the moment he succeeded to the throne.</t>
+  </si>
+  <si>
+    <t>This chemical reaction generates a lot of heat.</t>
+  </si>
+  <si>
+    <t>Gases transmit heat through thermal convention.</t>
+  </si>
+  <si>
+    <t>The Law of Thermodynamics explains the transfer of heat.</t>
+  </si>
+  <si>
+    <t>Pay attention to the amount of nutrition in your food if you want to be healthy.</t>
+  </si>
+  <si>
+    <t>lime proportion.</t>
+  </si>
+  <si>
+    <t>Precious metals ratio.</t>
+  </si>
+  <si>
+    <t>The table was set appealingly.</t>
+  </si>
+  <si>
+    <t>End tables placed conveniently.</t>
+  </si>
+  <si>
+    <t>The furniture was sitting around uselessly.</t>
+  </si>
+  <si>
+    <t>They will certainly need to take in plenty of liquid.</t>
+  </si>
+  <si>
+    <t>In health，fluid intake is usually balanced with output.</t>
+  </si>
+  <si>
+    <t>Table 4 is an example of a typical day's food intake.</t>
+  </si>
+  <si>
+    <t>Ventral (or pelvic) fins correspond to the hind limbs of a quadruped.</t>
+  </si>
+  <si>
+    <t>The wing of a bat and the arm of a man are homologous.</t>
+  </si>
+  <si>
+    <t>We were able to see that these antibodies are specific to each protein.</t>
+  </si>
+  <si>
+    <t>Put that aside.</t>
+  </si>
+  <si>
+    <t>Yes, put that aside.</t>
+  </si>
+  <si>
+    <t>No other explanation is offered for her decision to enter into a brief, nervous affair with Dutch.</t>
+  </si>
+  <si>
+    <t>Interest tapered off.</t>
+  </si>
+  <si>
+    <t>The wind gradually died away.</t>
+  </si>
+  <si>
+    <t>The interest declined by little and little.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xíguàn shìhòutiān yǎng chéng de. </t>
+  </si>
+  <si>
+    <t>Yǎngchéng jiàoyù hěn zhòngyào，yào zhùyì péiyǎng háizi de liánghǎo xíguàn.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -907,6 +1060,33 @@
     <t>讽刺</t>
   </si>
   <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>热量</t>
+  </si>
+  <si>
+    <t>配比</t>
+  </si>
+  <si>
+    <t>摆放</t>
+  </si>
+  <si>
+    <t>摄入</t>
+  </si>
+  <si>
+    <t>对应</t>
+  </si>
+  <si>
+    <t>除此以外</t>
+  </si>
+  <si>
+    <t>逐渐</t>
+  </si>
+  <si>
+    <t>养成</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -920,6 +1100,9 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,13 +1485,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1316,13 +1499,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1330,13 +1513,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1344,13 +1527,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1358,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1372,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1386,13 +1569,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1400,13 +1583,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1414,13 +1597,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1428,13 +1611,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1442,13 +1625,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1456,13 +1639,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1470,13 +1653,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1484,13 +1667,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1498,13 +1681,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1512,13 +1695,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1526,13 +1709,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1540,13 +1723,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1554,13 +1737,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1568,13 +1751,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1582,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1596,13 +1779,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1610,13 +1793,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1624,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1638,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1652,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1666,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1680,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1694,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1708,13 +1891,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1722,13 +1905,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1736,13 +1919,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1750,13 +1933,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1764,13 +1947,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1778,13 +1961,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1792,13 +1975,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1806,13 +1989,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1820,13 +2003,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1834,13 +2017,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1848,13 +2031,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1862,13 +2045,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="D42" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1876,13 +2059,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1890,13 +2073,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1904,13 +2087,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1918,13 +2101,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1932,13 +2115,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1946,13 +2129,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1960,13 +2143,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1974,13 +2157,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1988,13 +2171,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2002,13 +2185,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2016,13 +2199,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2030,13 +2213,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2044,13 +2227,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2058,13 +2241,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2072,13 +2255,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2086,13 +2269,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="D58" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2100,13 +2283,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2114,13 +2297,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2128,13 +2311,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2142,13 +2325,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2156,13 +2339,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2170,13 +2353,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2184,13 +2367,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2198,13 +2381,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2212,13 +2395,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2226,13 +2409,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2240,13 +2423,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2254,13 +2437,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2268,13 +2451,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2282,13 +2465,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2296,13 +2479,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2310,13 +2493,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2324,13 +2507,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2338,13 +2521,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2352,13 +2535,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="D77" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2366,13 +2549,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2380,13 +2563,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2394,13 +2577,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2408,13 +2591,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2422,13 +2605,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2436,13 +2619,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2450,13 +2633,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2464,13 +2647,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2478,13 +2661,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2492,13 +2675,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="D87" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2506,13 +2689,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D88" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2520,13 +2703,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2534,13 +2717,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2548,13 +2731,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2562,13 +2745,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2576,13 +2759,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="D93" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2590,13 +2773,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2604,13 +2787,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2618,13 +2801,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2632,13 +2815,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2646,13 +2829,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2660,13 +2843,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2674,13 +2857,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2688,13 +2871,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="D101" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2702,13 +2885,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="D102" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2716,13 +2899,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2730,13 +2913,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2744,13 +2927,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2758,13 +2941,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D106" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2772,13 +2955,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2786,13 +2969,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2800,13 +2983,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2814,13 +2997,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2828,13 +3011,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="D111" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2842,13 +3025,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="D112" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2856,13 +3039,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2870,13 +3053,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="D114" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2884,13 +3067,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2898,13 +3081,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2912,13 +3095,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D117" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2926,13 +3109,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C118" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2940,13 +3123,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2954,13 +3137,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C120" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="D120" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2968,13 +3151,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2982,13 +3165,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="D122" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2996,13 +3179,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="D123" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3010,13 +3193,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="D124" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3024,13 +3207,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="D125" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3038,13 +3221,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3052,13 +3235,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="D127" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3066,13 +3249,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3080,13 +3263,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="D129" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3094,13 +3277,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="D130" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3108,13 +3291,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3122,13 +3305,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="D132" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3136,13 +3319,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C133" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="D133" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3150,13 +3333,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D134" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3164,13 +3347,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="D135" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3178,13 +3361,374 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>348</v>
+      </c>
+      <c r="D137" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>348</v>
+      </c>
+      <c r="D138" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>348</v>
+      </c>
+      <c r="D139" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>349</v>
+      </c>
+      <c r="D140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" t="s">
+        <v>349</v>
+      </c>
+      <c r="D141" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" t="s">
+        <v>349</v>
+      </c>
+      <c r="D142" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" t="s">
+        <v>350</v>
+      </c>
+      <c r="D143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" t="s">
+        <v>350</v>
+      </c>
+      <c r="D144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" t="s">
+        <v>351</v>
+      </c>
+      <c r="D147" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C148" t="s">
+        <v>351</v>
+      </c>
+      <c r="D148" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" t="s">
+        <v>352</v>
+      </c>
+      <c r="D150" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" t="s">
+        <v>353</v>
+      </c>
+      <c r="D152" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" t="s">
+        <v>353</v>
+      </c>
+      <c r="D153" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" t="s">
+        <v>353</v>
+      </c>
+      <c r="D154" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" t="s">
+        <v>354</v>
+      </c>
+      <c r="D155" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" t="s">
+        <v>294</v>
+      </c>
+      <c r="C156" t="s">
+        <v>354</v>
+      </c>
+      <c r="D156" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" t="s">
+        <v>354</v>
+      </c>
+      <c r="D157" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" t="s">
         <v>296</v>
       </c>
-      <c r="D136" t="s">
-        <v>301</v>
+      <c r="C158" t="s">
+        <v>355</v>
+      </c>
+      <c r="D158" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" t="s">
+        <v>355</v>
+      </c>
+      <c r="D159" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" t="s">
+        <v>298</v>
+      </c>
+      <c r="C160" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" t="s">
+        <v>356</v>
+      </c>
+      <c r="D161" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="B162" t="s">
+        <v>300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>356</v>
+      </c>
+      <c r="D162" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="481">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -472,6 +472,156 @@
     <t xml:space="preserve">习惯是后天养成的。  </t>
   </si>
   <si>
+    <t xml:space="preserve">你看，我有好消息。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最近没什么好消息。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">报纸的头版有好消息。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">人们热烈鼓掌，掌声经久不衰。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">全校师生热烈欢迎新校长。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">会上展开了热烈的讨论。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">舆论界对世界两大汽车制造商的合作褒贬不一。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">人们对他褒贬不一。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这次试飞的反映褒贬不一。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">仿效我们的做法，你就可以一举两得。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我昨天想出去走走，顺便带上了我的狗，真是一举两得啊。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一举两得。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他需要鼓励。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长应该鼓励孩子。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们流露出一丝鼓励。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不战则已，战则必胜。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公则生明，廉则生威。 - 朱舜水  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我没依照任何参考。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他参考了另一个文献。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">以上观点仅供参考。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她侵犯了我的隐私。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这侵犯了我的个人权利。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们签定了互不侵犯条约。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">丹尼斯涉嫌谋杀。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他因涉嫌贪污被逮捕。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他因涉嫌是美国间谍而被逮捕。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不要歧视残疾人。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们将会反对歧视。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">主要党派都精通于种族歧视。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">像成功人士一样思考。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是病残人士的专座。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这张纸业余人士也能贴上去。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">亦或是漠不关心。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">亦或能够使之蒸发。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">或者倾听，亦或交流。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一阵令人焦虑的沉默。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们焦虑不安，不断跳跃。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她感到焦虑，哪都不对劲。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我没有恶意。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他对她没有恶意。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他受到了恶意攻击。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我对市场营销相当了解。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这家公司高度重视市场营销。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">营销和广告公司应当扬长避短。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这书值得买。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">很值得做…  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">值得注意的是…  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">儒家思想提倡忠恕。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家提倡按时缴纳中央税。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">教育机构提倡安全使用互联网。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -919,6 +1069,156 @@
     <t>Yǎngchéng jiàoyù hěn zhòngyào，yào zhùyì péiyǎng háizi de liánghǎo xíguàn.</t>
   </si>
   <si>
+    <t>Guess what，I've got good news.</t>
+  </si>
+  <si>
+    <t>Good news has been thin on the ground lately.</t>
+  </si>
+  <si>
+    <t>The newspaper had good news on its front page.</t>
+  </si>
+  <si>
+    <t>The crowd applauded to the echo.</t>
+  </si>
+  <si>
+    <t>The whole university welcomed the new principal warmly.</t>
+  </si>
+  <si>
+    <t>Heated discussions occurred in the conference.</t>
+  </si>
+  <si>
+    <t>The press has different attitudes towards cooperation between the world's two major automobile manufacturers.</t>
+  </si>
+  <si>
+    <t>People pass different judgements on him.</t>
+  </si>
+  <si>
+    <t>Reaction to the test flight was mixed.</t>
+  </si>
+  <si>
+    <t>You could kill two birds with one stone by following our example.</t>
+  </si>
+  <si>
+    <t>I wanted to go for a walk yesterday and by taking my dog with me, I killed two birds with one stone.</t>
+  </si>
+  <si>
+    <t>You can kill two birds with one stone.</t>
+  </si>
+  <si>
+    <t>He needs encouragement.'</t>
+  </si>
+  <si>
+    <t>Parents should encourage their children.</t>
+  </si>
+  <si>
+    <t>They hold out little encouragement.</t>
+  </si>
+  <si>
+    <t>If you don't fight, then fine. If you do fight, fight to win.</t>
+  </si>
+  <si>
+    <t>Honesty produces justice, while probity brings about power.</t>
+  </si>
+  <si>
+    <t>I don't go by anything at all.</t>
+  </si>
+  <si>
+    <t>He appealed to another document.</t>
+  </si>
+  <si>
+    <t>The above advice is only for reference.</t>
+  </si>
+  <si>
+    <t>She is trespassing upon my privacy.</t>
+  </si>
+  <si>
+    <t>This impinges on my rights as an individual.</t>
+  </si>
+  <si>
+    <t>They signed a nonaggression pact.</t>
+  </si>
+  <si>
+    <t>Dennis is suspected of murder.</t>
+  </si>
+  <si>
+    <t>He was arrested on suspicion of corruption.</t>
+  </si>
+  <si>
+    <t>He was arrested on suspicion of being an American spy.</t>
+  </si>
+  <si>
+    <t>Don't discriminate against handicapped people.</t>
+  </si>
+  <si>
+    <t>We've got it within us to react against prejudice.</t>
+  </si>
+  <si>
+    <t>The main parties are steeped in racial divisions.</t>
+  </si>
+  <si>
+    <t>Think like a winner.</t>
+  </si>
+  <si>
+    <t>This seat is specially reserved for handicapped people.</t>
+  </si>
+  <si>
+    <t>The paper could be pasted up by amateurs.</t>
+  </si>
+  <si>
+    <t>Or simply indifferent.</t>
+  </si>
+  <si>
+    <t>Or vaporize it, would be  like it.</t>
+  </si>
+  <si>
+    <t>Or listen. Or try to have an exchange.</t>
+  </si>
+  <si>
+    <t>There was a suspenseful silence.</t>
+  </si>
+  <si>
+    <t>They flutter about nervously in staccato hops.</t>
+  </si>
+  <si>
+    <t>She felt restless, at odds with herself.</t>
+  </si>
+  <si>
+    <t>There were no hard feelings on my part.</t>
+  </si>
+  <si>
+    <t>He wished her no ill.</t>
+  </si>
+  <si>
+    <t>He was viciously attacked.</t>
+  </si>
+  <si>
+    <t>I have substantial understanding of marketing.</t>
+  </si>
+  <si>
+    <t>This company puts a high value on marketing.</t>
+  </si>
+  <si>
+    <t>Marketers and advertisers who want to be successful on the Net should be playing to its strength, not its weakness.</t>
+  </si>
+  <si>
+    <t>This book is worth buying.</t>
+  </si>
+  <si>
+    <t>it would be (well) worth doing...</t>
+  </si>
+  <si>
+    <t>it is notable that...</t>
+  </si>
+  <si>
+    <t>Confucianists advocate the idea of loyalty and consideration.</t>
+  </si>
+  <si>
+    <t>The State encourages paying the central tax on time.</t>
+  </si>
+  <si>
+    <t>Education providers advocate safe use of the internet.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1087,6 +1387,57 @@
     <t>养成</t>
   </si>
   <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>热烈</t>
+  </si>
+  <si>
+    <t>褒贬不一</t>
+  </si>
+  <si>
+    <t>一举两得</t>
+  </si>
+  <si>
+    <t>鼓励</t>
+  </si>
+  <si>
+    <t>则</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>侵犯</t>
+  </si>
+  <si>
+    <t>涉嫌</t>
+  </si>
+  <si>
+    <t>歧视</t>
+  </si>
+  <si>
+    <t>人士</t>
+  </si>
+  <si>
+    <t>亦或</t>
+  </si>
+  <si>
+    <t>焦虑</t>
+  </si>
+  <si>
+    <t>恶意</t>
+  </si>
+  <si>
+    <t>营销</t>
+  </si>
+  <si>
+    <t>值得</t>
+  </si>
+  <si>
+    <t>提倡</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1103,6 +1454,9 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1485,13 +1839,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1499,13 +1853,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1513,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1527,13 +1881,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1541,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1555,13 +1909,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1569,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1583,13 +1937,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1597,13 +1951,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1611,13 +1965,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1625,13 +1979,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1639,13 +1993,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1653,13 +2007,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1667,13 +2021,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1681,13 +2035,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1695,13 +2049,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1709,13 +2063,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1723,13 +2077,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1737,13 +2091,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D20" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1751,13 +2105,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1765,13 +2119,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1779,13 +2133,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1793,13 +2147,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1807,13 +2161,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1821,13 +2175,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1835,13 +2189,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1849,13 +2203,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1863,13 +2217,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1877,13 +2231,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="D30" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1891,13 +2245,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1905,13 +2259,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1919,13 +2273,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1933,13 +2287,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1947,13 +2301,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1961,13 +2315,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1975,13 +2329,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1989,13 +2343,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2003,13 +2357,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2017,13 +2371,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2031,13 +2385,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D41" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2045,13 +2399,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D42" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2059,13 +2413,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2073,13 +2427,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2087,13 +2441,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2101,13 +2455,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2115,13 +2469,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2129,13 +2483,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="D48" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2143,13 +2497,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="D49" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2157,13 +2511,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="D50" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2171,13 +2525,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2185,13 +2539,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="D52" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2199,13 +2553,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2213,13 +2567,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2227,13 +2581,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2241,13 +2595,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2255,13 +2609,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="D57" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2269,13 +2623,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="D58" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2283,13 +2637,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="D59" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2297,13 +2651,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="D60" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2311,13 +2665,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2325,13 +2679,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2339,13 +2693,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>322</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2353,13 +2707,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2367,13 +2721,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2381,13 +2735,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="D66" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2395,13 +2749,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2409,13 +2763,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2423,13 +2777,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2437,13 +2791,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2451,13 +2805,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2465,13 +2819,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2479,13 +2833,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2493,13 +2847,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="D74" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2507,13 +2861,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2521,13 +2875,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="D76" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2535,13 +2889,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="D77" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2549,13 +2903,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="D78" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2563,13 +2917,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="D79" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2577,13 +2931,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="D80" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2591,13 +2945,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="D81" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2605,13 +2959,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="D82" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2619,13 +2973,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2633,13 +2987,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2647,13 +3001,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2661,13 +3015,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2675,13 +3029,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2689,13 +3043,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="D88" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2703,13 +3057,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="D89" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2717,13 +3071,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2731,13 +3085,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2745,13 +3099,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="D92" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2759,13 +3113,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="D93" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2773,13 +3127,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="D94" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2787,13 +3141,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2801,13 +3155,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2815,13 +3169,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="D97" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2829,13 +3183,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2843,13 +3197,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2857,13 +3211,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="D100" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2871,13 +3225,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2885,13 +3239,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2899,13 +3253,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2913,13 +3267,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="D104" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2927,13 +3281,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2941,13 +3295,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2955,13 +3309,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="D107" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2969,13 +3323,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C108" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="D108" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2983,13 +3337,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="D109" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2997,13 +3351,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3011,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="D111" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3025,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3039,13 +3393,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3053,13 +3407,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3067,13 +3421,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3081,13 +3435,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3095,13 +3449,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="D117" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3109,13 +3463,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="D118" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3123,13 +3477,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C119" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="D119" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3137,13 +3491,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3151,13 +3505,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="D121" t="s">
-        <v>360</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3165,13 +3519,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="D122" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3179,13 +3533,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="D123" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3193,13 +3547,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="D124" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3207,13 +3561,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="D125" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3221,13 +3575,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3235,13 +3589,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="D127" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3249,13 +3603,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="D128" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3263,13 +3617,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="D129" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3277,13 +3631,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C130" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="D130" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3291,13 +3645,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="D131" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3305,13 +3659,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C132" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="D132" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3319,13 +3673,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3333,13 +3687,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="D134" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3347,13 +3701,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="D135" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3361,13 +3715,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="D136" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3375,13 +3729,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="D137" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3389,13 +3743,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3403,13 +3757,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C139" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="D139" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3417,13 +3771,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="C140" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="D140" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3431,13 +3785,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="D141" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3445,13 +3799,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="D142" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3459,13 +3813,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3473,13 +3827,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3487,13 +3841,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D145" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3501,13 +3855,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="D146" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3515,13 +3869,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="D147" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3529,13 +3883,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="C148" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3543,13 +3897,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="C149" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D149" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3557,13 +3911,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C150" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D150" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3571,13 +3925,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="C151" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D151" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3585,13 +3939,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C152" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="D152" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3599,13 +3953,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C153" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3613,13 +3967,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="D154" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3627,13 +3981,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D155" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3641,13 +3995,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="C156" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D156" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3655,13 +4009,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3669,13 +4023,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="C158" t="s">
-        <v>355</v>
+        <v>455</v>
       </c>
       <c r="D158" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3683,13 +4037,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>355</v>
+        <v>455</v>
       </c>
       <c r="D159" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3697,13 +4051,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C160" t="s">
-        <v>355</v>
+        <v>455</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3711,24 +4065,724 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C162" t="s">
+        <v>456</v>
+      </c>
+      <c r="D162" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" t="s">
+        <v>457</v>
+      </c>
+      <c r="D163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" t="s">
+        <v>352</v>
+      </c>
+      <c r="C164" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" t="s">
+        <v>457</v>
+      </c>
+      <c r="D165" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" t="s">
+        <v>354</v>
+      </c>
+      <c r="C166" t="s">
+        <v>458</v>
+      </c>
+      <c r="D166" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" t="s">
+        <v>355</v>
+      </c>
+      <c r="C167" t="s">
+        <v>458</v>
+      </c>
+      <c r="D167" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" t="s">
         <v>356</v>
       </c>
-      <c r="D162" t="s">
+      <c r="C168" t="s">
+        <v>458</v>
+      </c>
+      <c r="D168" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" t="s">
+        <v>459</v>
+      </c>
+      <c r="D169" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" t="s">
+        <v>459</v>
+      </c>
+      <c r="D170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" t="s">
+        <v>459</v>
+      </c>
+      <c r="D171" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>161</v>
+      </c>
+      <c r="B172" t="s">
+        <v>360</v>
+      </c>
+      <c r="C172" t="s">
+        <v>460</v>
+      </c>
+      <c r="D172" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" t="s">
+        <v>460</v>
+      </c>
+      <c r="D173" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174" t="s">
         <v>362</v>
+      </c>
+      <c r="C174" t="s">
+        <v>460</v>
+      </c>
+      <c r="D174" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" t="s">
+        <v>363</v>
+      </c>
+      <c r="C175" t="s">
+        <v>461</v>
+      </c>
+      <c r="D175" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" t="s">
+        <v>364</v>
+      </c>
+      <c r="C176" t="s">
+        <v>461</v>
+      </c>
+      <c r="D176" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" t="s">
+        <v>461</v>
+      </c>
+      <c r="D177" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178" t="s">
+        <v>366</v>
+      </c>
+      <c r="C178" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>168</v>
+      </c>
+      <c r="B179" t="s">
+        <v>367</v>
+      </c>
+      <c r="C179" t="s">
+        <v>462</v>
+      </c>
+      <c r="D179" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" t="s">
+        <v>368</v>
+      </c>
+      <c r="C180" t="s">
+        <v>463</v>
+      </c>
+      <c r="D180" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>170</v>
+      </c>
+      <c r="B181" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" t="s">
+        <v>463</v>
+      </c>
+      <c r="D181" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" t="s">
+        <v>370</v>
+      </c>
+      <c r="C182" t="s">
+        <v>463</v>
+      </c>
+      <c r="D182" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>172</v>
+      </c>
+      <c r="B183" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" t="s">
+        <v>464</v>
+      </c>
+      <c r="D183" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" t="s">
+        <v>372</v>
+      </c>
+      <c r="C184" t="s">
+        <v>464</v>
+      </c>
+      <c r="D184" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>174</v>
+      </c>
+      <c r="B185" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>175</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
+        <v>465</v>
+      </c>
+      <c r="D186" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>176</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" t="s">
+        <v>465</v>
+      </c>
+      <c r="D187" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>177</v>
+      </c>
+      <c r="B188" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" t="s">
+        <v>465</v>
+      </c>
+      <c r="D188" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>178</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" t="s">
+        <v>466</v>
+      </c>
+      <c r="D189" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>179</v>
+      </c>
+      <c r="B190" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" t="s">
+        <v>466</v>
+      </c>
+      <c r="D190" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" t="s">
+        <v>466</v>
+      </c>
+      <c r="D191" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>181</v>
+      </c>
+      <c r="B192" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" t="s">
+        <v>467</v>
+      </c>
+      <c r="D192" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
+        <v>467</v>
+      </c>
+      <c r="D193" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>183</v>
+      </c>
+      <c r="B194" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" t="s">
+        <v>467</v>
+      </c>
+      <c r="D194" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>184</v>
+      </c>
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
+        <v>468</v>
+      </c>
+      <c r="D195" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>185</v>
+      </c>
+      <c r="B196" t="s">
+        <v>384</v>
+      </c>
+      <c r="C196" t="s">
+        <v>468</v>
+      </c>
+      <c r="D196" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>186</v>
+      </c>
+      <c r="B197" t="s">
+        <v>385</v>
+      </c>
+      <c r="C197" t="s">
+        <v>468</v>
+      </c>
+      <c r="D197" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198" t="s">
+        <v>386</v>
+      </c>
+      <c r="C198" t="s">
+        <v>469</v>
+      </c>
+      <c r="D198" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>469</v>
+      </c>
+      <c r="D199" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>189</v>
+      </c>
+      <c r="B200" t="s">
+        <v>388</v>
+      </c>
+      <c r="C200" t="s">
+        <v>469</v>
+      </c>
+      <c r="D200" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" t="s">
+        <v>389</v>
+      </c>
+      <c r="C201" t="s">
+        <v>470</v>
+      </c>
+      <c r="D201" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>191</v>
+      </c>
+      <c r="B202" t="s">
+        <v>390</v>
+      </c>
+      <c r="C202" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" t="s">
+        <v>391</v>
+      </c>
+      <c r="C203" t="s">
+        <v>470</v>
+      </c>
+      <c r="D203" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" t="s">
+        <v>392</v>
+      </c>
+      <c r="C204" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" t="s">
+        <v>471</v>
+      </c>
+      <c r="D205" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" t="s">
+        <v>394</v>
+      </c>
+      <c r="C206" t="s">
+        <v>471</v>
+      </c>
+      <c r="D206" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" t="s">
+        <v>395</v>
+      </c>
+      <c r="C207" t="s">
+        <v>472</v>
+      </c>
+      <c r="D207" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208" t="s">
+        <v>396</v>
+      </c>
+      <c r="C208" t="s">
+        <v>472</v>
+      </c>
+      <c r="D208" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>198</v>
+      </c>
+      <c r="B209" t="s">
+        <v>397</v>
+      </c>
+      <c r="C209" t="s">
+        <v>472</v>
+      </c>
+      <c r="D209" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>199</v>
+      </c>
+      <c r="B210" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" t="s">
+        <v>473</v>
+      </c>
+      <c r="D210" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>200</v>
+      </c>
+      <c r="B211" t="s">
+        <v>399</v>
+      </c>
+      <c r="C211" t="s">
+        <v>473</v>
+      </c>
+      <c r="D211" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>201</v>
+      </c>
+      <c r="B212" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfitz\Documents\GitHub Clones\anki-card-importer\Databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41876C8-3046-4A46-8686-6521A748F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1515" yWindow="1725" windowWidth="14955" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="566">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -622,6 +628,111 @@
     <t xml:space="preserve">教育机构提倡安全使用互联网。  </t>
   </si>
   <si>
+    <t xml:space="preserve">这个人骚扰他的女同事。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她抓住任何机会骚扰他。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们受到了多种形式的骚扰。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对这种霸王条款，我们就是气不忿儿!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">恶毒的煽动者  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煽动者, 挑动者  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煽动者，挑动者。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他改变初衷，站到了另一边。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">成立这个联合会的初衷是为音乐家们服务。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">也许这是我的初衷  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们要节约开支。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他花钱一向很节约。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她奉行节约，但不吝啬。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们需要福特的转向助力泵。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">造就人得是阻力, 而不是助力。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">造就人的是阻力，而不是助力。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">引擎往复推动螺旋桨。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们打算推动计划进行。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这台机器是由电力推动的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她制止了他的胡言乱语。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">谣言的传播必须制止。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们必须制止暴力蔓延。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果遗漏了某些人，我们对此深表歉意。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我想我能够代表这里的所有人表示由衷的歉意。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我对我今天说的话表示歉意，请不要跟我一般见识了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他带着一些考虑尚不周全的计划出现了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我靠你周全。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢谢你周全我们。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读书使人完善。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这杆秤非常精准，买菜的人都用它。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">精准的边际生产成本的估计是很难达到的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">你需要使用精准的统计工具才能得到正确的结果。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所有的椅子都很搭配。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这盘火鸡用欧芹来搭配点缀。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽沿帽和她的毛衣更搭配。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1219,6 +1330,99 @@
     <t>Education providers advocate safe use of the internet.</t>
   </si>
   <si>
+    <t>This man harasses his female co-workers.</t>
+  </si>
+  <si>
+    <t>She gave him hell at the slightest opportunity.</t>
+  </si>
+  <si>
+    <t>They were harassed in many ways.</t>
+  </si>
+  <si>
+    <t>A pestilent agitator.</t>
+  </si>
+  <si>
+    <t>Tell me instantly he arrives.</t>
+  </si>
+  <si>
+    <t>He bent from his original position and took another side.</t>
+  </si>
+  <si>
+    <t>The union came into existence to serve the interests of musicians.</t>
+  </si>
+  <si>
+    <t>Perhaps that was the intention.</t>
+  </si>
+  <si>
+    <t>We should cut down on expenses.</t>
+  </si>
+  <si>
+    <t>He's always been careful with his spending.</t>
+  </si>
+  <si>
+    <t>She practices economy without being stingy.</t>
+  </si>
+  <si>
+    <t>We want to buy power steering for FORD.</t>
+  </si>
+  <si>
+    <t>It is not helps but obstacles that make a man.</t>
+  </si>
+  <si>
+    <t>The engine reciprocates the propeller.</t>
+  </si>
+  <si>
+    <t>They decide to push ahead with the plan.</t>
+  </si>
+  <si>
+    <t>This machine goes by electricity.</t>
+  </si>
+  <si>
+    <t>She put a stop to his nonsense.</t>
+  </si>
+  <si>
+    <t>The communication of rumors must be stopped.</t>
+  </si>
+  <si>
+    <t>We must put a stay on the spreading violence.</t>
+  </si>
+  <si>
+    <t>If anyone has been left out，we apologise for the omission.</t>
+  </si>
+  <si>
+    <t>I think I can speak for everyone here when I express my sincere apologies.</t>
+  </si>
+  <si>
+    <t>I apologize for the things i said earlier, please don't take offense.</t>
+  </si>
+  <si>
+    <t>He comes out with these half-baked ideas.</t>
+  </si>
+  <si>
+    <t>I lean upon you for aid.</t>
+  </si>
+  <si>
+    <t>Thank you for helping us achieve our aim.</t>
+  </si>
+  <si>
+    <t>This kind of lever scale is very exact and is used by many consumers.</t>
+  </si>
+  <si>
+    <t>Accurate estimates of the marginal costs of production are often very difficult to obtain.</t>
+  </si>
+  <si>
+    <t>To obtain accurate results, you need to employ good statistical tools.</t>
+  </si>
+  <si>
+    <t>All the chairs matched.</t>
+  </si>
+  <si>
+    <t>The turkey was trimmed with parsley.</t>
+  </si>
+  <si>
+    <t>A wide-brimmed hat will be  becoming with that sweater.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1438,6 +1642,45 @@
     <t>提倡</t>
   </si>
   <si>
+    <t>骚扰</t>
+  </si>
+  <si>
+    <t>气不忿儿</t>
+  </si>
+  <si>
+    <t>煽动者</t>
+  </si>
+  <si>
+    <t>初衷</t>
+  </si>
+  <si>
+    <t>节约</t>
+  </si>
+  <si>
+    <t>助力</t>
+  </si>
+  <si>
+    <t>推动</t>
+  </si>
+  <si>
+    <t>制止</t>
+  </si>
+  <si>
+    <t>歉意</t>
+  </si>
+  <si>
+    <t>周全</t>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>精准</t>
+  </si>
+  <si>
+    <t>搭配</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1457,13 +1700,31 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>Reading makes a full man.</t>
+  </si>
+  <si>
+    <t>法律体系需要完善</t>
+  </si>
+  <si>
+    <t>The legal system needs to be improved.</t>
+  </si>
+  <si>
+    <t>这里的排水设施不完善。</t>
+  </si>
+  <si>
+    <t>Drainage here is imperfect.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1787,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1572,7 +1841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1604,9 +1873,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1638,6 +1925,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1813,14 +2118,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,2958 +2144,3491 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C29" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="D34" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="D40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C44" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="D46" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="D49" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="D50" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D51" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D52" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D53" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D54" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D55" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="D56" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="D58" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="C59" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D61" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C63" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="D65" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="D66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="D67" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="D68" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D70" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D71" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="D72" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D76" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="D78" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="D80" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="D81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="D83" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="D84" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="D85" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="D87" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D88" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="C89" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D89" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C90" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="D90" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D91" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C93" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D93" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="D94" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C95" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="C98" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="D98" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="D99" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C100" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="D100" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="D101" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="D102" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D104" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D105" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="D106" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="D107" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="C108" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="D109" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="D110" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C111" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="D111" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="D112" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="D116" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="D117" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="D119" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="D120" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="C122" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="D122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="D123" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C124" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="D124" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="D125" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="D126" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="C127" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="D129" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="D130" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="D131" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="C132" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="D132" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C133" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="D133" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="D134" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="C135" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="D135" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="D136" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C137" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="D137" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="C138" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="D138" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="D139" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="C140" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="D140" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="C141" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="D141" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="D142" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C143" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="D143" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C144" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="D144" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C145" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="D145" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="C146" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="D146" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="D147" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="D148" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="D149" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="D150" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="C151" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="D151" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="C152" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="D152" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="D153" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C154" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="D154" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="D155" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="D156" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="C157" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="D157" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="D158" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C159" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="D159" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C160" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="D160" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C161" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="D161" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="D162" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="C163" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="D163" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="D164" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="C165" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="D165" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="C166" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="D166" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="D167" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="D168" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="C169" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="D169" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="C170" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="D170" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C171" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="D171" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="C172" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="D172" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="C173" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="D173" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C174" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="D174" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="C175" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="D176" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="C177" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="D177" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="D178" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C179" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="D179" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C180" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="D180" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C181" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="D181" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="C182" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="D182" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="C183" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="D183" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C184" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="D184" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C185" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="D185" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C186" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="D186" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="C187" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="D187" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C188" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="D188" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="C189" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="D189" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C190" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="D190" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="C191" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="D191" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C192" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="D192" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="C193" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="D193" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="C194" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="D194" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C195" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D195" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="C196" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D196" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C197" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D197" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="C198" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="D198" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C199" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="D199" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="C200" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="D200" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C201" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="D201" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="C202" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="D202" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="C203" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="D203" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="C204" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="D204" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="C205" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="D205" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="C206" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="D206" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="C207" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="D207" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="C208" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="D208" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="C209" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="D209" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="C210" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="D210" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="C211" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="D211" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="C212" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="D212" t="s">
-        <v>480</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>202</v>
+      </c>
+      <c r="B213" t="s">
+        <v>436</v>
+      </c>
+      <c r="C213" t="s">
+        <v>540</v>
+      </c>
+      <c r="D213" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>203</v>
+      </c>
+      <c r="B214" t="s">
+        <v>437</v>
+      </c>
+      <c r="C214" t="s">
+        <v>540</v>
+      </c>
+      <c r="D214" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" t="s">
+        <v>438</v>
+      </c>
+      <c r="C215" t="s">
+        <v>540</v>
+      </c>
+      <c r="D215" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216" t="s">
+        <v>541</v>
+      </c>
+      <c r="D216" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>205</v>
+      </c>
+      <c r="B217" t="s">
+        <v>271</v>
+      </c>
+      <c r="C217" t="s">
+        <v>541</v>
+      </c>
+      <c r="D217" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" t="s">
+        <v>542</v>
+      </c>
+      <c r="D218" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>207</v>
+      </c>
+      <c r="B219" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219" t="s">
+        <v>542</v>
+      </c>
+      <c r="D219" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>208</v>
+      </c>
+      <c r="B220" t="s">
+        <v>440</v>
+      </c>
+      <c r="C220" t="s">
+        <v>542</v>
+      </c>
+      <c r="D220" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>209</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+      <c r="C221" t="s">
+        <v>543</v>
+      </c>
+      <c r="D221" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" t="s">
+        <v>543</v>
+      </c>
+      <c r="D222" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>211</v>
+      </c>
+      <c r="B223" t="s">
+        <v>443</v>
+      </c>
+      <c r="C223" t="s">
+        <v>543</v>
+      </c>
+      <c r="D223" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>212</v>
+      </c>
+      <c r="B224" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" t="s">
+        <v>544</v>
+      </c>
+      <c r="D224" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>213</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" t="s">
+        <v>544</v>
+      </c>
+      <c r="D225" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>214</v>
+      </c>
+      <c r="B226" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" t="s">
+        <v>544</v>
+      </c>
+      <c r="D226" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>215</v>
+      </c>
+      <c r="B227" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" t="s">
+        <v>545</v>
+      </c>
+      <c r="D227" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>216</v>
+      </c>
+      <c r="B228" t="s">
+        <v>448</v>
+      </c>
+      <c r="C228" t="s">
+        <v>545</v>
+      </c>
+      <c r="D228" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>217</v>
+      </c>
+      <c r="B229" t="s">
+        <v>448</v>
+      </c>
+      <c r="C229" t="s">
+        <v>545</v>
+      </c>
+      <c r="D229" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>218</v>
+      </c>
+      <c r="B230" t="s">
+        <v>449</v>
+      </c>
+      <c r="C230" t="s">
+        <v>546</v>
+      </c>
+      <c r="D230" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>219</v>
+      </c>
+      <c r="B231" t="s">
+        <v>450</v>
+      </c>
+      <c r="C231" t="s">
+        <v>546</v>
+      </c>
+      <c r="D231" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>220</v>
+      </c>
+      <c r="B232" t="s">
+        <v>451</v>
+      </c>
+      <c r="C232" t="s">
+        <v>546</v>
+      </c>
+      <c r="D232" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>221</v>
+      </c>
+      <c r="B233" t="s">
+        <v>452</v>
+      </c>
+      <c r="C233" t="s">
+        <v>547</v>
+      </c>
+      <c r="D233" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>222</v>
+      </c>
+      <c r="B234" t="s">
+        <v>453</v>
+      </c>
+      <c r="C234" t="s">
+        <v>547</v>
+      </c>
+      <c r="D234" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>223</v>
+      </c>
+      <c r="B235" t="s">
+        <v>454</v>
+      </c>
+      <c r="C235" t="s">
+        <v>547</v>
+      </c>
+      <c r="D235" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>224</v>
+      </c>
+      <c r="B236" t="s">
+        <v>455</v>
+      </c>
+      <c r="C236" t="s">
+        <v>548</v>
+      </c>
+      <c r="D236" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237" t="s">
+        <v>456</v>
+      </c>
+      <c r="C237" t="s">
+        <v>548</v>
+      </c>
+      <c r="D237" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>226</v>
+      </c>
+      <c r="B238" t="s">
+        <v>457</v>
+      </c>
+      <c r="C238" t="s">
+        <v>548</v>
+      </c>
+      <c r="D238" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" t="s">
+        <v>458</v>
+      </c>
+      <c r="C239" t="s">
+        <v>549</v>
+      </c>
+      <c r="D239" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>228</v>
+      </c>
+      <c r="B240" t="s">
+        <v>459</v>
+      </c>
+      <c r="C240" t="s">
+        <v>549</v>
+      </c>
+      <c r="D240" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" t="s">
+        <v>460</v>
+      </c>
+      <c r="C241" t="s">
+        <v>549</v>
+      </c>
+      <c r="D241" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" t="s">
+        <v>561</v>
+      </c>
+      <c r="C242" t="s">
+        <v>550</v>
+      </c>
+      <c r="D242" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>562</v>
+      </c>
+      <c r="B243" t="s">
+        <v>563</v>
+      </c>
+      <c r="C243" t="s">
+        <v>550</v>
+      </c>
+      <c r="D243" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>564</v>
+      </c>
+      <c r="B244" t="s">
+        <v>565</v>
+      </c>
+      <c r="C244" t="s">
+        <v>550</v>
+      </c>
+      <c r="D244" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" t="s">
+        <v>461</v>
+      </c>
+      <c r="C245" t="s">
+        <v>551</v>
+      </c>
+      <c r="D245" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>232</v>
+      </c>
+      <c r="B246" t="s">
+        <v>462</v>
+      </c>
+      <c r="C246" t="s">
+        <v>551</v>
+      </c>
+      <c r="D246" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>233</v>
+      </c>
+      <c r="B247" t="s">
+        <v>463</v>
+      </c>
+      <c r="C247" t="s">
+        <v>551</v>
+      </c>
+      <c r="D247" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>234</v>
+      </c>
+      <c r="B248" t="s">
+        <v>464</v>
+      </c>
+      <c r="C248" t="s">
+        <v>552</v>
+      </c>
+      <c r="D248" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>235</v>
+      </c>
+      <c r="B249" t="s">
+        <v>465</v>
+      </c>
+      <c r="C249" t="s">
+        <v>552</v>
+      </c>
+      <c r="D249" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>236</v>
+      </c>
+      <c r="B250" t="s">
+        <v>466</v>
+      </c>
+      <c r="C250" t="s">
+        <v>552</v>
+      </c>
+      <c r="D250" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfitz\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41876C8-3046-4A46-8686-6521A748F9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1725" windowWidth="14955" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="586">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -715,6 +709,12 @@
     <t xml:space="preserve">读书使人完善。  </t>
   </si>
   <si>
+    <t>法律体系需要完善</t>
+  </si>
+  <si>
+    <t>这里的排水设施不完善。</t>
+  </si>
+  <si>
     <t xml:space="preserve">这杆秤非常精准，买菜的人都用它。  </t>
   </si>
   <si>
@@ -733,6 +733,30 @@
     <t xml:space="preserve">宽沿帽和她的毛衣更搭配。  </t>
   </si>
   <si>
+    <t xml:space="preserve">奴隶们无法保留自己的名字。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她认为保留一本日记毫无意义。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">也有一些位子是为女性保留的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不把某物给予或授予他人保留或保有某物。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">政府保留所有本版权告示没有明确授予的权利。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">未经本司明确书面授予的任何权利均予以全部保留。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他是今年诺贝尔物理学奖的得主。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨天晚上，我听了一位诺贝尔得主的演讲。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1405,6 +1429,15 @@
     <t>Thank you for helping us achieve our aim.</t>
   </si>
   <si>
+    <t>Reading makes a full man.</t>
+  </si>
+  <si>
+    <t>The legal system needs to be improved.</t>
+  </si>
+  <si>
+    <t>Drainage here is imperfect.</t>
+  </si>
+  <si>
     <t>This kind of lever scale is very exact and is used by many consumers.</t>
   </si>
   <si>
@@ -1423,6 +1456,30 @@
     <t>A wide-brimmed hat will be  becoming with that sweater.</t>
   </si>
   <si>
+    <t>Slaves can't stick to their name.</t>
+  </si>
+  <si>
+    <t>She thinks there is no point to keep a diary.</t>
+  </si>
+  <si>
+    <t>Some seats were also reserved for women.</t>
+  </si>
+  <si>
+    <t>Not give or sell sth. To sb else keep or retain sth.</t>
+  </si>
+  <si>
+    <t>The Government reserves all rights that are not expressly granted in this Notice.</t>
+  </si>
+  <si>
+    <t>Without the written permission of PKByeBye Ltd, there is no right to use any Trademark displayed on this website.</t>
+  </si>
+  <si>
+    <t>He is the winner of this year's Nobel Prize for Physics.</t>
+  </si>
+  <si>
+    <t>Last night, I attended a lecture by a Nobel prize winner.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1681,6 +1738,15 @@
     <t>搭配</t>
   </si>
   <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>授予</t>
+  </si>
+  <si>
+    <t>诺贝尔</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1705,26 +1771,14 @@
     <t>2020-12-04</t>
   </si>
   <si>
-    <t>Reading makes a full man.</t>
-  </si>
-  <si>
-    <t>法律体系需要完善</t>
-  </si>
-  <si>
-    <t>The legal system needs to be improved.</t>
-  </si>
-  <si>
-    <t>这里的排水设施不完善。</t>
-  </si>
-  <si>
-    <t>Drainage here is imperfect.</t>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,14 +1841,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1841,7 +1887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1873,27 +1919,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1925,24 +1953,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2118,19 +2128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,3491 +2149,3616 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="D4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="D5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D20" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="D24" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="D25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D27" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="D28" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D29" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D31" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D32" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="D34" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D38" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D39" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D40" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D42" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="D43" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C44" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D45" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D46" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C49" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="D50" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D51" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C52" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D52" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D53" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="D55" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="D56" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="D57" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D58" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D59" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D60" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D61" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D62" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D63" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D64" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C67" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="D68" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="D69" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C70" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D70" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C71" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D71" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C73" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D74" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C76" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="D77" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C78" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D79" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D80" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="D82" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C83" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="D83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="D84" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="D85" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="D86" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C88" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="D88" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="D89" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="D90" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="D91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="D92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="D93" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="D94" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="D95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="D96" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="D97" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C98" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D98" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D100" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C101" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="D101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="D102" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="D103" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C104" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D104" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D105" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D106" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C107" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D108" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C109" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D110" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D111" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C112" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C113" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D113" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C114" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D114" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C115" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D115" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C116" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="D116" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C117" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="D117" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="D118" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="D119" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="D120" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="D121" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="D122" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="D123" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D125" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D126" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D127" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D128" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D129" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C130" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D130" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C131" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D131" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C132" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D132" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C133" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D133" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C134" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="D134" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="D135" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="D136" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="D137" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="D138" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="D139" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C140" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D140" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D141" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C142" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D142" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C143" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D143" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C144" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D145" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C146" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="D146" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="D147" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="D148" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C149" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D149" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C150" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D150" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C151" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D151" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C152" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D152" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C153" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D153" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C154" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D154" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C155" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="D155" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="D156" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C157" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="D157" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C158" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="D158" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C159" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="D159" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C160" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="D160" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C161" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="D161" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C162" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="D162" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C163" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D163" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C164" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D164" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C165" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D165" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C166" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="D166" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C167" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="D167" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C168" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="D168" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="D169" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C170" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="D170" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C171" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="D171" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C172" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D172" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C173" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D173" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C174" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D174" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C175" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="D175" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C176" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="D176" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C177" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="D177" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C178" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="D178" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C179" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="D179" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C180" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="D180" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C181" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="D181" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C182" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="D182" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C183" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D183" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C184" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D184" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="D185" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C186" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="D186" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C187" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="D187" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C188" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="D188" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="D189" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C190" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="D190" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C191" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="D191" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C192" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="D192" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C193" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="D193" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C194" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="D194" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C195" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="D195" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C196" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="D196" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C197" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="D197" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C198" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="D198" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C199" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="D199" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C200" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="D200" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C201" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="D201" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C202" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="D202" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C203" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="D203" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C204" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D204" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C205" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D205" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C206" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D206" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C207" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="D207" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C208" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="D208" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C209" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="D209" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C210" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="D210" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C211" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="D211" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C212" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="D212" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C213" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D213" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C214" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D214" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C215" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D215" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C216" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="D216" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C217" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="D217" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C218" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D218" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C219" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D219" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C220" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D220" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C221" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="D221" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C222" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="D222" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C223" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="D223" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C224" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D224" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C225" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D225" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C226" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D226" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C227" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="D227" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C228" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="D228" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C229" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="D229" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C230" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D230" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C231" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D231" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C232" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D232" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C233" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="D233" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C234" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="D234" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C235" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="D235" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C236" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="D236" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C237" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="D237" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="D238" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C239" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="D239" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C240" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="D240" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C241" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="D241" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="C242" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="D242" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>562</v>
+        <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="C243" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="D243" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>564</v>
+        <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>565</v>
+        <v>473</v>
       </c>
       <c r="C244" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="D244" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C245" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="D245" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C246" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="D246" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C247" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="D247" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C248" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="D248" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="C249" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="D249" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C250" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="D250" t="s">
-        <v>560</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>239</v>
+      </c>
+      <c r="B251" t="s">
+        <v>480</v>
+      </c>
+      <c r="C251" t="s">
+        <v>574</v>
+      </c>
+      <c r="D251" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>240</v>
+      </c>
+      <c r="B252" t="s">
+        <v>481</v>
+      </c>
+      <c r="C252" t="s">
+        <v>574</v>
+      </c>
+      <c r="D252" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>241</v>
+      </c>
+      <c r="B253" t="s">
+        <v>482</v>
+      </c>
+      <c r="C253" t="s">
+        <v>574</v>
+      </c>
+      <c r="D253" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>242</v>
+      </c>
+      <c r="B254" t="s">
+        <v>483</v>
+      </c>
+      <c r="C254" t="s">
+        <v>575</v>
+      </c>
+      <c r="D254" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>243</v>
+      </c>
+      <c r="B255" t="s">
+        <v>484</v>
+      </c>
+      <c r="C255" t="s">
+        <v>575</v>
+      </c>
+      <c r="D255" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>244</v>
+      </c>
+      <c r="B256" t="s">
+        <v>485</v>
+      </c>
+      <c r="C256" t="s">
+        <v>575</v>
+      </c>
+      <c r="D256" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>245</v>
+      </c>
+      <c r="B257" t="s">
+        <v>486</v>
+      </c>
+      <c r="C257" t="s">
+        <v>576</v>
+      </c>
+      <c r="D257" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>42</v>
+      </c>
+      <c r="B258" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" t="s">
+        <v>576</v>
+      </c>
+      <c r="D258" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>246</v>
+      </c>
+      <c r="B259" t="s">
+        <v>487</v>
+      </c>
+      <c r="C259" t="s">
+        <v>576</v>
+      </c>
+      <c r="D259" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="613">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -757,6 +757,36 @@
     <t xml:space="preserve">昨天晚上，我听了一位诺贝尔得主的演讲。  </t>
   </si>
   <si>
+    <t xml:space="preserve">谎言终究是谎言。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">撇开农田不说  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">撇开这两点不谈  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们正在处理战争带来的直接恶果，要应对重重困难。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们克服重重困难而取得成功。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他是一名海军上校。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他被授予美国空军上校。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽以待人, 无处不是光风霁月。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽阔的胸襟  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">斜胸襟长衫  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1480,6 +1510,36 @@
     <t>Last night, I attended a lecture by a Nobel prize winner.</t>
   </si>
   <si>
+    <t xml:space="preserve">Huǎngyán zhōngjiùshì huǎngyán. </t>
+  </si>
+  <si>
+    <t>Set aside farmland.</t>
+  </si>
+  <si>
+    <t>Let's not confuse the two.</t>
+  </si>
+  <si>
+    <t>They are going to have hard time solving all the immediate consequences of the war.</t>
+  </si>
+  <si>
+    <t>We won through all difficulties.</t>
+  </si>
+  <si>
+    <t>He's a four-striper.</t>
+  </si>
+  <si>
+    <t>He was commissioned as a captain in the United States Air Force.</t>
+  </si>
+  <si>
+    <t>Wide to treat people, Ji everywhere on the wind is light.</t>
+  </si>
+  <si>
+    <t>width of mind.</t>
+  </si>
+  <si>
+    <t>surplice front gown.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1747,6 +1807,24 @@
     <t>诺贝尔</t>
   </si>
   <si>
+    <t>终究</t>
+  </si>
+  <si>
+    <t>撇开</t>
+  </si>
+  <si>
+    <t>重重困难</t>
+  </si>
+  <si>
+    <t>上校</t>
+  </si>
+  <si>
+    <t>光风霁月</t>
+  </si>
+  <si>
+    <t>胸襟</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1772,6 +1850,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2154,13 +2235,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2168,13 +2249,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2182,13 +2263,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2196,13 +2277,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2210,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2224,13 +2305,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2238,13 +2319,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2252,13 +2333,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2266,13 +2347,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2280,13 +2361,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2294,13 +2375,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2308,13 +2389,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2322,13 +2403,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2336,13 +2417,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2350,13 +2431,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2364,13 +2445,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2378,13 +2459,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="D18" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2392,13 +2473,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="D19" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2406,13 +2487,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2420,13 +2501,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D21" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2434,13 +2515,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2448,13 +2529,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2462,13 +2543,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D24" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2476,13 +2557,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2490,13 +2571,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="D26" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2504,13 +2585,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="D27" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2518,13 +2599,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="D28" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2532,13 +2613,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D29" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2546,13 +2627,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C30" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D30" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2560,13 +2641,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D31" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2574,13 +2655,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2588,13 +2669,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="D33" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2602,13 +2683,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="D34" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2616,13 +2697,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D35" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2630,13 +2711,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D36" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2644,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D37" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2658,13 +2739,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D38" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2672,13 +2753,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D39" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2686,13 +2767,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D40" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2700,13 +2781,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="D41" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2714,13 +2795,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="D42" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2728,13 +2809,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="D43" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2742,13 +2823,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="D44" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2756,13 +2837,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="D45" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2770,13 +2851,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="D46" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2784,13 +2865,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D47" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2798,13 +2879,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D48" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2812,13 +2893,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D49" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2826,13 +2907,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="D50" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2840,13 +2921,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="D51" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2854,13 +2935,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C52" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="D52" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2868,13 +2949,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C53" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="D53" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2882,13 +2963,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C54" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D54" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2896,13 +2977,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C55" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D55" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2910,13 +2991,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D56" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2924,13 +3005,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C57" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="D57" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2938,13 +3019,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="D58" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2952,13 +3033,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="D59" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2966,13 +3047,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="D60" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2980,13 +3061,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D61" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2994,13 +3075,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D62" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3008,13 +3089,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="D63" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3022,13 +3103,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C64" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D64" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3036,13 +3117,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D65" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3050,13 +3131,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C66" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D66" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3064,13 +3145,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="D67" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3078,13 +3159,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C68" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="D68" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3092,13 +3173,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C69" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="D69" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3106,13 +3187,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D70" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3120,13 +3201,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C71" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D71" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3134,13 +3215,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D72" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3148,13 +3229,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C73" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="D73" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3162,13 +3243,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="D74" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3176,13 +3257,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C75" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="D75" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3190,13 +3271,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C76" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="D76" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3204,13 +3285,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C77" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="D77" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3218,13 +3299,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C78" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="D78" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3232,13 +3313,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C79" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="D79" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3246,13 +3327,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="D80" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3260,13 +3341,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C81" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="D81" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3274,13 +3355,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D82" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3288,13 +3369,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D83" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3302,13 +3383,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D84" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3316,13 +3397,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D85" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3330,13 +3411,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C86" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D86" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3344,13 +3425,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C87" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D87" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3358,13 +3439,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D88" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3372,13 +3453,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C89" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D89" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3386,13 +3467,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="D90" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3400,13 +3481,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D91" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3414,13 +3495,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D92" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3428,13 +3509,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D93" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3442,13 +3523,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C94" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="D94" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3456,13 +3537,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C95" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="D95" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3470,13 +3551,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C96" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="D96" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3484,13 +3565,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="D97" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3498,13 +3579,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D98" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3512,13 +3593,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C99" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D99" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3526,13 +3607,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C100" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D100" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3540,13 +3621,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C101" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D101" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3554,13 +3635,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C102" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D102" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3568,13 +3649,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D103" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3582,13 +3663,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C104" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="D104" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3596,13 +3677,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="D105" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3610,13 +3691,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C106" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="D106" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3624,13 +3705,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3638,13 +3719,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C108" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="D108" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3652,13 +3733,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C109" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="D109" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3666,13 +3747,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="D110" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3680,13 +3761,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="D111" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3694,13 +3775,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C112" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="D112" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3708,13 +3789,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D113" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3722,13 +3803,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C114" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D114" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3736,13 +3817,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D115" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3750,13 +3831,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="D116" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3764,13 +3845,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C117" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="D117" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3778,13 +3859,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="D118" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3792,13 +3873,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="D119" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3806,13 +3887,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C120" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="D120" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3820,13 +3901,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C121" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="D121" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3834,13 +3915,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C122" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="D122" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3848,13 +3929,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="D123" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3862,13 +3943,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C124" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="D124" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3876,13 +3957,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="D125" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3890,13 +3971,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C126" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="D126" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3904,13 +3985,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C127" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="D127" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3918,13 +3999,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C128" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="D128" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3932,13 +4013,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C129" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="D129" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3946,13 +4027,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C130" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="D130" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3960,13 +4041,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C131" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="D131" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3974,13 +4055,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C132" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="D132" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3988,13 +4069,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4002,13 +4083,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C134" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="D134" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4016,13 +4097,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="D135" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4030,13 +4111,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C136" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="D136" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4044,13 +4125,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C137" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="D137" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4058,13 +4139,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="D138" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4072,13 +4153,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C139" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="D139" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4086,13 +4167,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="D140" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4100,13 +4181,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C141" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="D141" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4114,13 +4195,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C142" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="D142" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4128,13 +4209,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C143" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="D143" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4142,13 +4223,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C144" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="D144" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4156,13 +4237,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C145" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="D145" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4170,13 +4251,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C146" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D146" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4184,13 +4265,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C147" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D147" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4198,13 +4279,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C148" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D148" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4212,13 +4293,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C149" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="D149" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4226,13 +4307,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C150" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="D150" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4240,13 +4321,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C151" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="D151" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4254,13 +4335,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C152" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D152" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4268,13 +4349,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C153" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D153" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4282,13 +4363,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C154" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="D154" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4296,13 +4377,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C155" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D155" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4310,13 +4391,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C156" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D156" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4324,13 +4405,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C157" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D157" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4338,13 +4419,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C158" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="D158" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4352,13 +4433,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C159" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="D159" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4366,13 +4447,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C160" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="D160" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4380,24 +4461,24 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C161" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="D161" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C162" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="D162" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4405,13 +4486,13 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C163" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="D163" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4419,13 +4500,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C164" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="D164" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4433,13 +4514,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C165" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="D165" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4447,13 +4528,13 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C166" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="D166" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4461,13 +4542,13 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C167" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="D167" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4475,13 +4556,13 @@
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C168" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4489,13 +4570,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C169" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="D169" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4503,13 +4584,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C170" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="D170" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4517,13 +4598,13 @@
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C171" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="D171" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4531,13 +4612,13 @@
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C172" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="D172" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4545,13 +4626,13 @@
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C173" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="D173" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4559,13 +4640,13 @@
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C174" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="D174" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4573,13 +4654,13 @@
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C175" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D175" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4587,13 +4668,13 @@
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C176" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D176" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4601,13 +4682,13 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D177" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4615,13 +4696,13 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C178" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D178" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4629,13 +4710,13 @@
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C179" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D179" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4643,13 +4724,13 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C180" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="D180" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4657,13 +4738,13 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C181" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="D181" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4671,13 +4752,13 @@
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C182" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="D182" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4685,13 +4766,13 @@
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C183" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="D183" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4699,13 +4780,13 @@
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C184" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="D184" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4713,13 +4794,13 @@
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="D185" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4727,13 +4808,13 @@
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="D186" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4741,13 +4822,13 @@
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C187" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="D187" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4755,13 +4836,13 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C188" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="D188" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4769,13 +4850,13 @@
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C189" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="D189" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4783,13 +4864,13 @@
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C190" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="D190" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4797,13 +4878,13 @@
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C191" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="D191" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4811,13 +4892,13 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C192" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D192" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4825,13 +4906,13 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C193" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D193" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4839,13 +4920,13 @@
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D194" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4853,13 +4934,13 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C195" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="D195" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4867,13 +4948,13 @@
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="D196" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4881,13 +4962,13 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C197" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="D197" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4895,13 +4976,13 @@
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C198" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D198" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4909,13 +4990,13 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C199" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D199" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4923,13 +5004,13 @@
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C200" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D200" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4937,13 +5018,13 @@
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C201" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="D201" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4951,13 +5032,13 @@
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="D202" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4965,13 +5046,13 @@
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C203" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="D203" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4979,13 +5060,13 @@
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C204" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D204" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4993,13 +5074,13 @@
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C205" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D205" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5007,13 +5088,13 @@
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C206" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D206" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5021,13 +5102,13 @@
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C207" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="D207" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5035,13 +5116,13 @@
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C208" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="D208" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5049,13 +5130,13 @@
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C209" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="D209" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5063,13 +5144,13 @@
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C210" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="D210" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5077,13 +5158,13 @@
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C211" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="D211" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5091,13 +5172,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C212" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="D212" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5105,13 +5186,13 @@
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C213" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D213" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5119,13 +5200,13 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C214" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D214" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5133,13 +5214,13 @@
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C215" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D215" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5147,13 +5228,13 @@
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C216" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="D216" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5161,13 +5242,13 @@
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C217" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="D217" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5175,13 +5256,13 @@
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C218" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D218" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5189,13 +5270,13 @@
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C219" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D219" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5203,13 +5284,13 @@
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C220" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D220" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5217,13 +5298,13 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C221" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D221" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5231,13 +5312,13 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C222" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D222" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5245,13 +5326,13 @@
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C223" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D223" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5259,13 +5340,13 @@
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C224" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="D224" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5273,13 +5354,13 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C225" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="D225" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5287,13 +5368,13 @@
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C226" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="D226" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5301,13 +5382,13 @@
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C227" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="D227" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5315,13 +5396,13 @@
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C228" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="D228" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5329,13 +5410,13 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C229" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="D229" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5343,13 +5424,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C230" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="D230" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5357,13 +5438,13 @@
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C231" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="D231" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5371,13 +5452,13 @@
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C232" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="D232" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5385,13 +5466,13 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C233" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D233" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5399,13 +5480,13 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C234" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D234" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5413,13 +5494,13 @@
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C235" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D235" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5427,13 +5508,13 @@
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C236" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D236" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5441,13 +5522,13 @@
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C237" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D237" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5455,13 +5536,13 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C238" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D238" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5469,13 +5550,13 @@
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="D239" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5483,13 +5564,13 @@
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C240" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="D240" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5497,13 +5578,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C241" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="D241" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5511,13 +5592,13 @@
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C242" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D242" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5525,13 +5606,13 @@
         <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C243" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D243" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5539,13 +5620,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C244" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D244" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5553,13 +5634,13 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C245" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="D245" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5567,13 +5648,13 @@
         <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C246" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="D246" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5581,13 +5662,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C247" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="D247" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5595,13 +5676,13 @@
         <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C248" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D248" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5609,13 +5690,13 @@
         <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C249" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D249" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5623,13 +5704,13 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C250" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="D250" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5637,13 +5718,13 @@
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C251" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="D251" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5651,13 +5732,13 @@
         <v>240</v>
       </c>
       <c r="B252" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C252" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="D252" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5665,13 +5746,13 @@
         <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C253" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="D253" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5679,13 +5760,13 @@
         <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C254" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D254" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5693,13 +5774,13 @@
         <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C255" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D255" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5707,13 +5788,13 @@
         <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C256" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D256" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5721,13 +5802,13 @@
         <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C257" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D257" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5735,13 +5816,13 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C258" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D258" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5749,13 +5830,223 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C259" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D259" t="s">
-        <v>585</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>247</v>
+      </c>
+      <c r="B260" t="s">
+        <v>498</v>
+      </c>
+      <c r="C260" t="s">
+        <v>597</v>
+      </c>
+      <c r="D260" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>43</v>
+      </c>
+      <c r="B261" t="s">
+        <v>296</v>
+      </c>
+      <c r="C261" t="s">
+        <v>598</v>
+      </c>
+      <c r="D261" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>248</v>
+      </c>
+      <c r="B262" t="s">
+        <v>499</v>
+      </c>
+      <c r="C262" t="s">
+        <v>598</v>
+      </c>
+      <c r="D262" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>249</v>
+      </c>
+      <c r="B263" t="s">
+        <v>500</v>
+      </c>
+      <c r="C263" t="s">
+        <v>598</v>
+      </c>
+      <c r="D263" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" t="s">
+        <v>296</v>
+      </c>
+      <c r="C264" t="s">
+        <v>599</v>
+      </c>
+      <c r="D264" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>250</v>
+      </c>
+      <c r="B265" t="s">
+        <v>501</v>
+      </c>
+      <c r="C265" t="s">
+        <v>599</v>
+      </c>
+      <c r="D265" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>251</v>
+      </c>
+      <c r="B266" t="s">
+        <v>502</v>
+      </c>
+      <c r="C266" t="s">
+        <v>599</v>
+      </c>
+      <c r="D266" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>298</v>
+      </c>
+      <c r="C267" t="s">
+        <v>600</v>
+      </c>
+      <c r="D267" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>252</v>
+      </c>
+      <c r="B268" t="s">
+        <v>503</v>
+      </c>
+      <c r="C268" t="s">
+        <v>600</v>
+      </c>
+      <c r="D268" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>253</v>
+      </c>
+      <c r="B269" t="s">
+        <v>504</v>
+      </c>
+      <c r="C269" t="s">
+        <v>600</v>
+      </c>
+      <c r="D269" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>48</v>
+      </c>
+      <c r="B270" t="s">
+        <v>301</v>
+      </c>
+      <c r="C270" t="s">
+        <v>601</v>
+      </c>
+      <c r="D270" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>254</v>
+      </c>
+      <c r="B271" t="s">
+        <v>505</v>
+      </c>
+      <c r="C271" t="s">
+        <v>601</v>
+      </c>
+      <c r="D271" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>48</v>
+      </c>
+      <c r="B272" t="s">
+        <v>301</v>
+      </c>
+      <c r="C272" t="s">
+        <v>602</v>
+      </c>
+      <c r="D272" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>255</v>
+      </c>
+      <c r="B273" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" t="s">
+        <v>602</v>
+      </c>
+      <c r="D273" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274" t="s">
+        <v>507</v>
+      </c>
+      <c r="C274" t="s">
+        <v>602</v>
+      </c>
+      <c r="D274" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="653">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -787,6 +787,57 @@
     <t xml:space="preserve">斜胸襟长衫  </t>
   </si>
   <si>
+    <t xml:space="preserve">他们家的家训是：“寻找一种无畏的精神”  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作为一个地下党员，他为党的事业无私无畏地做着贡献。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大家不该诋毁她得清誉。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我久闻先生的清誉, 十分敬仰。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">孩子们眼巴巴地看着糖果。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大家眼巴巴地盼着他回来。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这份急不可耐被扑灭了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">消防队员奋力扑灭了大火。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">灭火器是用来扑灭火焰的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所有的地面盖满了密密层层的灌木丛。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所有得地面盖满了密密层层得灌木丛。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">整片湖都被密密层层的芦苇围了起来。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不违规的司机不应该被拦截。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他否认这个天主教堂有违规行为。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">很难确定最高工资限额的违规程度。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">前车之鉴。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">警告或前车之鉴  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1540,6 +1591,51 @@
     <t>surplice front gown.</t>
   </si>
   <si>
+    <t>His family motto is"Look For A Brave Spirit".</t>
+  </si>
+  <si>
+    <t>As a underground party member, he selfishly worked for the cause of the party.</t>
+  </si>
+  <si>
+    <t>I will not have anyone cast doubt on the honor of my.</t>
+  </si>
+  <si>
+    <t>The children were eying the sweets.</t>
+  </si>
+  <si>
+    <t>We were eagerly looking forward to his return.</t>
+  </si>
+  <si>
+    <t>This type of intolerance is stamped out.</t>
+  </si>
+  <si>
+    <t>Firemen struggled to put out the blaze.</t>
+  </si>
+  <si>
+    <t>Fire extinguishers are used to beat out fires.</t>
+  </si>
+  <si>
+    <t>The entire surface is covered with dense thickets.</t>
+  </si>
+  <si>
+    <t>The whole lake was rimmed with thick beds of reeds.</t>
+  </si>
+  <si>
+    <t>An unoffending motorist should not have been stopped.</t>
+  </si>
+  <si>
+    <t>He denies the errancy of the catholic church.</t>
+  </si>
+  <si>
+    <t>The extent to which the maximum wage was regularly breached is difficult to determine.</t>
+  </si>
+  <si>
+    <t>One man rs fault is other man rs lesson.</t>
+  </si>
+  <si>
+    <t>A cautionary or deterrent example.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1825,6 +1921,27 @@
     <t>胸襟</t>
   </si>
   <si>
+    <t>无畏</t>
+  </si>
+  <si>
+    <t>清誉</t>
+  </si>
+  <si>
+    <t>眼巴巴</t>
+  </si>
+  <si>
+    <t>扑灭</t>
+  </si>
+  <si>
+    <t>密密层层</t>
+  </si>
+  <si>
+    <t>违规</t>
+  </si>
+  <si>
+    <t>前车之鉴</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1853,6 +1970,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2249,13 +2369,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2263,13 +2383,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="D4" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2277,13 +2397,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2291,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2305,13 +2425,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D7" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2319,13 +2439,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2333,13 +2453,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D9" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2347,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D10" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2361,13 +2481,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="D11" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2375,13 +2495,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2389,13 +2509,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2403,13 +2523,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D14" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2417,13 +2537,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D15" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2431,13 +2551,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D16" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2445,13 +2565,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="D17" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2459,13 +2579,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="D18" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2473,13 +2593,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2487,13 +2607,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="D20" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2501,13 +2621,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2515,13 +2635,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="D22" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2529,13 +2649,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2543,13 +2663,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2557,13 +2677,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2571,13 +2691,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D26" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2585,13 +2705,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D27" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2599,13 +2719,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D28" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2613,13 +2733,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="D29" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2627,13 +2747,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="D30" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2641,13 +2761,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2655,13 +2775,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="D32" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2669,13 +2789,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="D33" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2683,13 +2803,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="D34" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2697,13 +2817,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="D35" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2711,13 +2831,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="D36" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2725,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="D37" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2739,13 +2859,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="D38" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2753,13 +2873,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="D39" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2767,13 +2887,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="D40" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2781,13 +2901,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C41" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="D41" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2795,13 +2915,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="D42" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2809,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C43" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="D43" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2823,13 +2943,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="D44" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2837,13 +2957,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="D45" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2851,13 +2971,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="D46" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2865,13 +2985,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="D47" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2879,13 +2999,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="D48" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2893,13 +3013,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C49" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="D49" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2907,13 +3027,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="D50" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2921,13 +3041,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="D51" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2935,13 +3055,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="D52" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2949,13 +3069,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="D53" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2963,13 +3083,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D54" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2977,13 +3097,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D55" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2991,13 +3111,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D56" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3005,13 +3125,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="D57" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3019,13 +3139,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C58" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D58" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3033,13 +3153,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C59" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D59" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3047,13 +3167,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C60" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D60" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3061,13 +3181,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="D61" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3075,13 +3195,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="D62" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3089,13 +3209,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C63" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="D63" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3103,13 +3223,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="D64" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3117,13 +3237,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="D65" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3131,13 +3251,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="D66" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3145,13 +3265,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C67" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="D67" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3159,13 +3279,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="D68" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3173,13 +3293,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="D69" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3187,13 +3307,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="D70" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3201,13 +3321,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="D71" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3215,13 +3335,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="D72" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3229,13 +3349,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C73" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D73" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3243,13 +3363,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C74" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D74" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3257,13 +3377,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C75" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D75" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3271,13 +3391,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C76" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="D76" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3285,13 +3405,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C77" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="D77" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3299,13 +3419,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C78" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="D78" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3313,13 +3433,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="D79" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3327,13 +3447,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="D80" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3341,13 +3461,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="D81" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3355,13 +3475,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C82" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D82" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3369,13 +3489,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D83" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3383,13 +3503,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D84" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3397,13 +3517,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="D85" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3411,13 +3531,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C86" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="D86" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3425,13 +3545,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C87" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="D87" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3439,13 +3559,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C88" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D88" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3453,13 +3573,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D89" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3467,13 +3587,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D90" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3481,13 +3601,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C91" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="D91" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3495,13 +3615,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="D92" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3509,13 +3629,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C93" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="D93" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3523,13 +3643,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C94" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="D94" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3537,13 +3657,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="C95" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="D95" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3551,13 +3671,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C96" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="D96" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3565,13 +3685,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="D97" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3579,13 +3699,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="D98" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3593,13 +3713,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C99" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="D99" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3607,13 +3727,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C100" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="D100" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3621,13 +3741,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="D101" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3635,13 +3755,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C102" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="D102" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3649,13 +3769,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="D103" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3663,13 +3783,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C104" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D104" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3677,13 +3797,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C105" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D105" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3691,13 +3811,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D106" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3705,13 +3825,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C107" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="D107" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3719,13 +3839,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="D108" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3733,13 +3853,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C109" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="D109" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3747,13 +3867,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="D110" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3761,13 +3881,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="D111" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3775,13 +3895,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C112" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="D112" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3789,13 +3909,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="D113" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3803,13 +3923,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="D114" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3817,13 +3937,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C115" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="D115" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3831,13 +3951,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="D116" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3845,13 +3965,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="D117" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3859,13 +3979,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="D118" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3873,13 +3993,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C119" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="D119" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3887,13 +4007,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="D120" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3901,13 +4021,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C121" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="D121" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3915,13 +4035,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C122" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="D122" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3929,13 +4049,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C123" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="D123" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3943,13 +4063,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="D124" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3957,13 +4077,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C125" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="D125" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3971,13 +4091,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="D126" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3985,13 +4105,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C127" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="D127" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3999,13 +4119,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C128" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D128" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4013,13 +4133,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C129" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D129" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4027,13 +4147,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D130" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4041,13 +4161,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C131" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D131" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4055,13 +4175,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C132" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D132" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4069,13 +4189,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D133" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4083,13 +4203,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C134" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="D134" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4097,13 +4217,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C135" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="D135" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4111,13 +4231,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C136" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="D136" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4125,13 +4245,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C137" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D137" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4139,13 +4259,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C138" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D138" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4153,13 +4273,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C139" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D139" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4167,13 +4287,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C140" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="D140" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4181,13 +4301,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C141" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="D141" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4195,13 +4315,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C142" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="D142" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4209,13 +4329,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C143" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="D143" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4223,13 +4343,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C144" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="D144" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4237,13 +4357,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C145" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="D145" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4251,13 +4371,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="D146" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4265,13 +4385,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="D147" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4279,13 +4399,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C148" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="D148" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4293,13 +4413,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C149" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D149" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4307,13 +4427,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C150" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D150" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4321,13 +4441,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C151" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D151" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4335,13 +4455,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C152" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="D152" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4349,13 +4469,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C153" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="D153" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4363,13 +4483,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C154" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="D154" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4377,13 +4497,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C155" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D155" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4391,13 +4511,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D156" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4405,13 +4525,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C157" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D157" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4419,13 +4539,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="D158" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4433,13 +4553,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C159" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="D159" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4447,13 +4567,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C160" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="D160" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4461,24 +4581,24 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C161" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="D161" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C162" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="D162" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4486,13 +4606,13 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C163" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="D163" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4500,13 +4620,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C164" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="D164" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4514,13 +4634,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C165" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="D165" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4528,13 +4648,13 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C166" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D166" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4542,13 +4662,13 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C167" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D167" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4556,13 +4676,13 @@
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C168" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D168" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4570,13 +4690,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="D169" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4584,13 +4704,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C170" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="D170" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4598,13 +4718,13 @@
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C171" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="D171" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4612,13 +4732,13 @@
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C172" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D172" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4626,13 +4746,13 @@
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="C173" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D173" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4640,13 +4760,13 @@
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C174" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D174" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4654,13 +4774,13 @@
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C175" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="D175" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4668,13 +4788,13 @@
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C176" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="D176" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4682,13 +4802,13 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C177" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="D177" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4696,13 +4816,13 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C178" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="D178" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4710,13 +4830,13 @@
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C179" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="D179" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4724,13 +4844,13 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C180" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="D180" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4738,13 +4858,13 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C181" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="D181" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4752,13 +4872,13 @@
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C182" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="D182" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4766,13 +4886,13 @@
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C183" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="D183" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4780,13 +4900,13 @@
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C184" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="D184" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4794,13 +4914,13 @@
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C185" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="D185" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4808,13 +4928,13 @@
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="C186" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="D186" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4822,13 +4942,13 @@
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="D187" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4836,13 +4956,13 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="D188" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4850,13 +4970,13 @@
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C189" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D189" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4864,13 +4984,13 @@
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C190" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D190" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4878,13 +4998,13 @@
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="C191" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D191" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4892,13 +5012,13 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="D192" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4906,13 +5026,13 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C193" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="D193" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4920,13 +5040,13 @@
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C194" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="D194" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4934,13 +5054,13 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="C195" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="D195" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4948,13 +5068,13 @@
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C196" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="D196" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4962,13 +5082,13 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="C197" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="D197" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4976,13 +5096,13 @@
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C198" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="D198" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4990,13 +5110,13 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C199" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="D199" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5004,13 +5124,13 @@
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C200" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="D200" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5018,13 +5138,13 @@
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C201" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="D201" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5032,13 +5152,13 @@
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="D202" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5046,13 +5166,13 @@
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C203" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="D203" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5060,13 +5180,13 @@
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="C204" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="D204" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5074,13 +5194,13 @@
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="D205" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5088,13 +5208,13 @@
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="C206" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="D206" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5102,13 +5222,13 @@
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C207" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="D207" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5116,13 +5236,13 @@
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C208" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="D208" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5130,13 +5250,13 @@
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="D209" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5144,13 +5264,13 @@
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="C210" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="D210" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5158,13 +5278,13 @@
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C211" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="D211" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5172,13 +5292,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C212" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="D212" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5186,13 +5306,13 @@
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="D213" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5200,13 +5320,13 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C214" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="D214" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5214,13 +5334,13 @@
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="D215" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5228,13 +5348,13 @@
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C216" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="D216" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5242,13 +5362,13 @@
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C217" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="D217" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5256,13 +5376,13 @@
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C218" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="D218" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5270,13 +5390,13 @@
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C219" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="D219" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5284,13 +5404,13 @@
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C220" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="D220" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5298,13 +5418,13 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="C221" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="D221" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5312,13 +5432,13 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C222" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="D222" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5326,13 +5446,13 @@
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C223" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="D223" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5340,13 +5460,13 @@
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C224" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="D224" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5354,13 +5474,13 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C225" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="D225" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5368,13 +5488,13 @@
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C226" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="D226" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5382,13 +5502,13 @@
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C227" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="D227" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5396,13 +5516,13 @@
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C228" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="D228" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5410,13 +5530,13 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C229" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="D229" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5424,13 +5544,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C230" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="D230" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5438,13 +5558,13 @@
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C231" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="D231" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5452,13 +5572,13 @@
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C232" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="D232" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5466,13 +5586,13 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="D233" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5480,13 +5600,13 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C234" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="D234" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5494,13 +5614,13 @@
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C235" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="D235" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5508,13 +5628,13 @@
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C236" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="D236" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5522,13 +5642,13 @@
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C237" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="D237" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5536,13 +5656,13 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="C238" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="D238" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5550,13 +5670,13 @@
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C239" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D239" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5564,13 +5684,13 @@
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="C240" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D240" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5578,13 +5698,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C241" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D241" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5592,13 +5712,13 @@
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C242" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="D242" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5606,13 +5726,13 @@
         <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C243" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="D243" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5620,13 +5740,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C244" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="D244" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5634,13 +5754,13 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C245" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="D245" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5648,13 +5768,13 @@
         <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="C246" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="D246" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5662,13 +5782,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C247" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="D247" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5676,13 +5796,13 @@
         <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="C248" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="D248" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5690,13 +5810,13 @@
         <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="C249" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="D249" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5704,13 +5824,13 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="C250" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="D250" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5718,13 +5838,13 @@
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="C251" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="D251" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5732,13 +5852,13 @@
         <v>240</v>
       </c>
       <c r="B252" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C252" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="D252" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5746,13 +5866,13 @@
         <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="C253" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="D253" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5760,13 +5880,13 @@
         <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="C254" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="D254" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5774,13 +5894,13 @@
         <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="C255" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="D255" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5788,13 +5908,13 @@
         <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C256" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="D256" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5802,13 +5922,13 @@
         <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C257" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="D257" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5816,13 +5936,13 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C258" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="D258" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5830,13 +5950,13 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C259" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="D259" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5844,13 +5964,13 @@
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="C260" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="D260" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5858,13 +5978,13 @@
         <v>43</v>
       </c>
       <c r="B261" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C261" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="D261" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5872,13 +5992,13 @@
         <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="C262" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="D262" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5886,13 +6006,13 @@
         <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="C263" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="D263" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5900,13 +6020,13 @@
         <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C264" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="D264" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5914,13 +6034,13 @@
         <v>250</v>
       </c>
       <c r="B265" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C265" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="D265" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5928,13 +6048,13 @@
         <v>251</v>
       </c>
       <c r="B266" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="C266" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="D266" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5942,13 +6062,13 @@
         <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C267" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D267" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5956,13 +6076,13 @@
         <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="C268" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D268" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5970,13 +6090,13 @@
         <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="C269" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D269" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5984,13 +6104,13 @@
         <v>48</v>
       </c>
       <c r="B270" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5998,13 +6118,13 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C271" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="D271" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6012,13 +6132,13 @@
         <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C272" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="D272" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6026,13 +6146,13 @@
         <v>255</v>
       </c>
       <c r="B273" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C273" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="D273" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6040,13 +6160,307 @@
         <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C274" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="D274" t="s">
-        <v>612</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" t="s">
+        <v>319</v>
+      </c>
+      <c r="C275" t="s">
+        <v>635</v>
+      </c>
+      <c r="D275" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>257</v>
+      </c>
+      <c r="B276" t="s">
+        <v>525</v>
+      </c>
+      <c r="C276" t="s">
+        <v>635</v>
+      </c>
+      <c r="D276" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>258</v>
+      </c>
+      <c r="B277" t="s">
+        <v>526</v>
+      </c>
+      <c r="C277" t="s">
+        <v>635</v>
+      </c>
+      <c r="D277" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>50</v>
+      </c>
+      <c r="B278" t="s">
+        <v>320</v>
+      </c>
+      <c r="C278" t="s">
+        <v>636</v>
+      </c>
+      <c r="D278" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>259</v>
+      </c>
+      <c r="B279" t="s">
+        <v>527</v>
+      </c>
+      <c r="C279" t="s">
+        <v>636</v>
+      </c>
+      <c r="D279" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>260</v>
+      </c>
+      <c r="B280" t="s">
+        <v>320</v>
+      </c>
+      <c r="C280" t="s">
+        <v>636</v>
+      </c>
+      <c r="D280" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>56</v>
+      </c>
+      <c r="B281" t="s">
+        <v>326</v>
+      </c>
+      <c r="C281" t="s">
+        <v>637</v>
+      </c>
+      <c r="D281" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>261</v>
+      </c>
+      <c r="B282" t="s">
+        <v>528</v>
+      </c>
+      <c r="C282" t="s">
+        <v>637</v>
+      </c>
+      <c r="D282" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>262</v>
+      </c>
+      <c r="B283" t="s">
+        <v>529</v>
+      </c>
+      <c r="C283" t="s">
+        <v>637</v>
+      </c>
+      <c r="D283" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>263</v>
+      </c>
+      <c r="B284" t="s">
+        <v>530</v>
+      </c>
+      <c r="C284" t="s">
+        <v>638</v>
+      </c>
+      <c r="D284" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>264</v>
+      </c>
+      <c r="B285" t="s">
+        <v>531</v>
+      </c>
+      <c r="C285" t="s">
+        <v>638</v>
+      </c>
+      <c r="D285" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286" t="s">
+        <v>532</v>
+      </c>
+      <c r="C286" t="s">
+        <v>638</v>
+      </c>
+      <c r="D286" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>266</v>
+      </c>
+      <c r="B287" t="s">
+        <v>533</v>
+      </c>
+      <c r="C287" t="s">
+        <v>639</v>
+      </c>
+      <c r="D287" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>267</v>
+      </c>
+      <c r="B288" t="s">
+        <v>533</v>
+      </c>
+      <c r="C288" t="s">
+        <v>639</v>
+      </c>
+      <c r="D288" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>268</v>
+      </c>
+      <c r="B289" t="s">
+        <v>534</v>
+      </c>
+      <c r="C289" t="s">
+        <v>639</v>
+      </c>
+      <c r="D289" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>269</v>
+      </c>
+      <c r="B290" t="s">
+        <v>535</v>
+      </c>
+      <c r="C290" t="s">
+        <v>640</v>
+      </c>
+      <c r="D290" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>270</v>
+      </c>
+      <c r="B291" t="s">
+        <v>536</v>
+      </c>
+      <c r="C291" t="s">
+        <v>640</v>
+      </c>
+      <c r="D291" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>271</v>
+      </c>
+      <c r="B292" t="s">
+        <v>537</v>
+      </c>
+      <c r="C292" t="s">
+        <v>640</v>
+      </c>
+      <c r="D292" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>62</v>
+      </c>
+      <c r="B293" t="s">
+        <v>332</v>
+      </c>
+      <c r="C293" t="s">
+        <v>641</v>
+      </c>
+      <c r="D293" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>272</v>
+      </c>
+      <c r="B294" t="s">
+        <v>538</v>
+      </c>
+      <c r="C294" t="s">
+        <v>641</v>
+      </c>
+      <c r="D294" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>273</v>
+      </c>
+      <c r="B295" t="s">
+        <v>539</v>
+      </c>
+      <c r="C295" t="s">
+        <v>641</v>
+      </c>
+      <c r="D295" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="699">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -838,6 +838,63 @@
     <t xml:space="preserve">警告或前车之鉴  </t>
   </si>
   <si>
+    <t xml:space="preserve">他是个十足的白痴。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他是个十足的笨蛋。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他的赞赏只能助长她的虚荣心。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚荣心爆棚啊  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川的峨眉，风景秀丽。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的家乡俗尚淳朴、风景秀丽。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">莲花峰奇伟秀丽，雄峙在黄山之颠。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她举止轻松。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她举止傲慢。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她举止从容。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她肥腴端庄，就像个唐代的美女。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">很明显，那里一些人非常端庄大方。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗色的衣服衬托出了她的端庄稳重。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">你这身功夫可谓盖世无双。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">汉字的字形可谓是千变万化。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">城市的众生相可谓千姿百态。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她容颜秀丽，举止端庄，真可谓是天香国色呀。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">每周的第一天，我们要坚持祝福圣餐，坚持祈求福音或者侍奉圣者。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">圣者的典范  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1636,6 +1693,60 @@
     <t>A cautionary or deterrent example.</t>
   </si>
   <si>
+    <t>He's a blasted idiot.</t>
+  </si>
+  <si>
+    <t>He's a complete idiot.</t>
+  </si>
+  <si>
+    <t>His admiration can only feed into her vanity.</t>
+  </si>
+  <si>
+    <t>You flatterer.</t>
+  </si>
+  <si>
+    <t>Emei in Sichuan boasts great scenery.</t>
+  </si>
+  <si>
+    <t>In my hometown, customs are simple, and the scenery is beautiful.</t>
+  </si>
+  <si>
+    <t>Lotus Peak is peculiar and beautiful, sitting high at the top of Mount Huangshan.</t>
+  </si>
+  <si>
+    <t>There is a facility about her demeanor.</t>
+  </si>
+  <si>
+    <t>She bore herself loftily.</t>
+  </si>
+  <si>
+    <t>She has a very easy manner.</t>
+  </si>
+  <si>
+    <t>Her plumpness and elegance made her a beauty in the Tang dynasty.</t>
+  </si>
+  <si>
+    <t>Evidently, there are some very decent people out there.</t>
+  </si>
+  <si>
+    <t>A dark dress makes her look elegant, and self-composed.</t>
+  </si>
+  <si>
+    <t>Your skills are second to none.</t>
+  </si>
+  <si>
+    <t>Chinese characters have ever-changing forms.</t>
+  </si>
+  <si>
+    <t>The postures of various people in the city take thousands of forms.</t>
+  </si>
+  <si>
+    <t>We may diligently observe the lord's supper on the first day of the week, diligently preach the gospel, or minister to the saint.</t>
+  </si>
+  <si>
+    <t>The Perfect Example of a Great Saint.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -1942,6 +2053,30 @@
     <t>前车之鉴</t>
   </si>
   <si>
+    <t>十足</t>
+  </si>
+  <si>
+    <t>虚荣心</t>
+  </si>
+  <si>
+    <t>秀丽</t>
+  </si>
+  <si>
+    <t>举止</t>
+  </si>
+  <si>
+    <t>端庄</t>
+  </si>
+  <si>
+    <t>可谓</t>
+  </si>
+  <si>
+    <t>天香国色</t>
+  </si>
+  <si>
+    <t>圣者</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -1973,6 +2108,9 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2355,13 +2493,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="D2" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2369,13 +2507,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2383,13 +2521,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="D4" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2397,13 +2535,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2411,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="D6" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2425,13 +2563,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2439,13 +2577,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="D8" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2453,13 +2591,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2467,13 +2605,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2481,13 +2619,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2495,13 +2633,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2509,13 +2647,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="D13" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2523,13 +2661,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="D14" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2537,13 +2675,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="D15" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2551,13 +2689,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2565,13 +2703,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2579,13 +2717,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2593,13 +2731,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D19" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2607,13 +2745,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="D20" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2621,13 +2759,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="D21" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2635,13 +2773,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="D22" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2649,13 +2787,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="D23" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2663,13 +2801,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="D24" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2677,13 +2815,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="D25" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2691,13 +2829,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2705,13 +2843,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="D27" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2719,13 +2857,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="D28" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2733,13 +2871,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="D29" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2747,13 +2885,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="D30" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2761,13 +2899,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="D31" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2775,13 +2913,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="D32" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2789,13 +2927,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="D33" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2803,13 +2941,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C34" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="D34" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2817,13 +2955,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="D35" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2831,13 +2969,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="D36" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2845,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="D37" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2859,13 +2997,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="D38" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2873,13 +3011,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="D39" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2887,13 +3025,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="D40" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2901,13 +3039,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C41" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2915,13 +3053,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="D42" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2929,13 +3067,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="D43" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2943,13 +3081,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2957,13 +3095,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="D45" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2971,13 +3109,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="D46" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2985,13 +3123,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="D47" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2999,13 +3137,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C48" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="D48" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3013,13 +3151,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="D49" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3027,13 +3165,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="C50" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="D50" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3041,13 +3179,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C51" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="D51" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3055,13 +3193,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="D52" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3069,13 +3207,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="D53" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3083,13 +3221,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="D54" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3097,13 +3235,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C55" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="D55" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3111,13 +3249,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C56" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="D56" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3125,13 +3263,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C57" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="D57" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3139,13 +3277,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C58" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="D58" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3153,13 +3291,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C59" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="D59" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3167,13 +3305,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="D60" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3181,13 +3319,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="D61" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3195,13 +3333,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="D62" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3209,13 +3347,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="D63" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3223,13 +3361,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="D64" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3237,13 +3375,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="D65" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3251,13 +3389,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="D66" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3265,13 +3403,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="D67" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3279,13 +3417,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="D68" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3293,13 +3431,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="D69" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3307,13 +3445,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="D70" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3321,13 +3459,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="D71" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3335,13 +3473,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="D72" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3349,13 +3487,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C73" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="D73" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3363,13 +3501,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="D74" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3377,13 +3515,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C75" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="D75" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3391,13 +3529,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C76" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="D76" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3405,13 +3543,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C77" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="D77" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3419,13 +3557,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="D78" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3433,13 +3571,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C79" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="D79" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3447,13 +3585,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C80" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="D80" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3461,13 +3599,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="D81" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3475,13 +3613,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="D82" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3489,13 +3627,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C83" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="D83" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3503,13 +3641,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C84" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="D84" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3517,13 +3655,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="D85" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3531,13 +3669,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="D86" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3545,13 +3683,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C87" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="D87" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3559,13 +3697,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C88" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="D88" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3573,13 +3711,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C89" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="D89" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3587,13 +3725,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C90" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="D90" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3601,13 +3739,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C91" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="D91" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3615,13 +3753,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C92" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="D92" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3629,13 +3767,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C93" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="D93" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3643,13 +3781,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="D94" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3657,13 +3795,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C95" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="D95" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3671,13 +3809,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="D96" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3685,13 +3823,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C97" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="D97" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3699,13 +3837,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="D98" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3713,13 +3851,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="D99" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3727,13 +3865,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C100" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="D100" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3741,13 +3879,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="D101" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3755,13 +3893,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C102" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="D102" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3769,13 +3907,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C103" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="D103" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3783,13 +3921,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C104" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="D104" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3797,13 +3935,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C105" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="D105" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3811,13 +3949,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C106" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="D106" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3825,13 +3963,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="D107" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3839,13 +3977,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="D108" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3853,13 +3991,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C109" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="D109" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3867,13 +4005,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="D110" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3881,13 +4019,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C111" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="D111" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3895,13 +4033,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="D112" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3909,13 +4047,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="D113" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3923,13 +4061,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C114" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="D114" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3937,13 +4075,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C115" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="D115" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3951,13 +4089,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C116" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="D116" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3965,13 +4103,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="D117" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3979,13 +4117,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C118" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="D118" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3993,13 +4131,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="D119" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4007,13 +4145,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C120" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="D120" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4021,13 +4159,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C121" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="D121" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4035,13 +4173,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="D122" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4049,13 +4187,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="D123" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4063,13 +4201,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C124" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="D124" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4077,13 +4215,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="D125" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4091,13 +4229,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="D126" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4105,13 +4243,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="D127" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4119,13 +4257,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="D128" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4133,13 +4271,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C129" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="D129" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4147,13 +4285,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C130" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="D130" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4161,13 +4299,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C131" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="D131" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4175,13 +4313,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C132" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="D132" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4189,13 +4327,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="D133" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4203,13 +4341,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C134" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="D134" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4217,13 +4355,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="D135" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4231,13 +4369,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="D136" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4245,13 +4383,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="D137" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4259,13 +4397,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C138" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="D138" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4273,13 +4411,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="D139" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4287,13 +4425,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="D140" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4301,13 +4439,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="D141" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4315,13 +4453,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="D142" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4329,13 +4467,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="D143" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4343,13 +4481,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="D144" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4357,13 +4495,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="D145" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4371,13 +4509,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D146" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4385,13 +4523,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C147" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D147" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4399,13 +4537,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C148" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D148" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4413,13 +4551,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C149" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="D149" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4427,13 +4565,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C150" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="D150" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4441,13 +4579,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C151" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="D151" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4455,13 +4593,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C152" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="D152" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4469,13 +4607,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C153" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="D153" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4483,13 +4621,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C154" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="D154" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4497,13 +4635,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C155" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="D155" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4511,13 +4649,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C156" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="D156" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4525,13 +4663,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C157" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="D157" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4539,13 +4677,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C158" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="D158" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4553,13 +4691,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C159" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="D159" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4567,13 +4705,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="C160" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="D160" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4581,24 +4719,24 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C161" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="D161" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="C162" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4606,13 +4744,13 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C163" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="D163" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4620,13 +4758,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C164" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="D164" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4634,13 +4772,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="D165" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4648,13 +4786,13 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D166" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4662,13 +4800,13 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C167" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D167" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4676,13 +4814,13 @@
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C168" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4690,13 +4828,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C169" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="D169" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4704,13 +4842,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C170" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="D170" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4718,13 +4856,13 @@
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C171" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="D171" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4732,13 +4870,13 @@
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C172" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="D172" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4746,13 +4884,13 @@
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C173" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="D173" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4760,13 +4898,13 @@
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C174" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="D174" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4774,13 +4912,13 @@
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C175" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="D175" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4788,13 +4926,13 @@
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C176" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="D176" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4802,13 +4940,13 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C177" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="D177" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4816,13 +4954,13 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C178" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="D178" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4830,13 +4968,13 @@
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C179" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="D179" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4844,13 +4982,13 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C180" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="D180" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4858,13 +4996,13 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="C181" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="D181" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4872,13 +5010,13 @@
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C182" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="D182" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4886,13 +5024,13 @@
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C183" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="D183" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4900,13 +5038,13 @@
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C184" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="D184" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4914,13 +5052,13 @@
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C185" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="D185" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4928,13 +5066,13 @@
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C186" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="D186" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4942,13 +5080,13 @@
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C187" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="D187" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4956,13 +5094,13 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C188" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="D188" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4970,13 +5108,13 @@
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C189" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="D189" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4984,13 +5122,13 @@
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C190" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="D190" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4998,13 +5136,13 @@
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C191" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="D191" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5012,13 +5150,13 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C192" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="D192" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5026,13 +5164,13 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C193" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="D193" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5040,13 +5178,13 @@
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C194" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="D194" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5054,13 +5192,13 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="C195" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="D195" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5068,13 +5206,13 @@
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="C196" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="D196" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5082,13 +5220,13 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="C197" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="D197" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5096,13 +5234,13 @@
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C198" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="D198" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5110,13 +5248,13 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C199" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="D199" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5124,13 +5262,13 @@
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C200" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="D200" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5138,13 +5276,13 @@
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C201" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="D201" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5152,13 +5290,13 @@
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C202" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="D202" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5166,13 +5304,13 @@
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="C203" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="D203" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5180,13 +5318,13 @@
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C204" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="D204" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5194,13 +5332,13 @@
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C205" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="D205" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5208,13 +5346,13 @@
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C206" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="D206" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5222,13 +5360,13 @@
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C207" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="D207" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5236,13 +5374,13 @@
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C208" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="D208" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5250,13 +5388,13 @@
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C209" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="D209" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5264,13 +5402,13 @@
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C210" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="D210" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5278,13 +5416,13 @@
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="C211" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="D211" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5292,13 +5430,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C212" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="D212" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5306,13 +5444,13 @@
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C213" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="D213" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5320,13 +5458,13 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C214" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="D214" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5334,13 +5472,13 @@
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C215" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="D215" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5348,13 +5486,13 @@
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C216" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="D216" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5362,13 +5500,13 @@
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C217" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="D217" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5376,13 +5514,13 @@
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C218" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="D218" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5390,13 +5528,13 @@
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C219" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="D219" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5404,13 +5542,13 @@
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C220" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="D220" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5418,13 +5556,13 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="C221" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="D221" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5432,13 +5570,13 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C222" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="D222" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5446,13 +5584,13 @@
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C223" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="D223" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5460,13 +5598,13 @@
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="C224" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="D224" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5474,13 +5612,13 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C225" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="D225" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5488,13 +5626,13 @@
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C226" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="D226" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5502,13 +5640,13 @@
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="C227" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="D227" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5516,13 +5654,13 @@
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="C228" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="D228" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5530,13 +5668,13 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="C229" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="D229" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5544,13 +5682,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C230" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="D230" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5558,13 +5696,13 @@
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C231" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="D231" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5572,13 +5710,13 @@
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="C232" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="D232" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5586,13 +5724,13 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C233" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="D233" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5600,13 +5738,13 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="C234" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="D234" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5614,13 +5752,13 @@
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C235" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="D235" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5628,13 +5766,13 @@
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C236" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="D236" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5642,13 +5780,13 @@
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C237" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="D237" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5656,13 +5794,13 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="C238" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="D238" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5670,13 +5808,13 @@
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C239" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="D239" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5684,13 +5822,13 @@
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C240" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="D240" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5698,13 +5836,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="C241" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="D241" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5712,13 +5850,13 @@
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="D242" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5726,13 +5864,13 @@
         <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="C243" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="D243" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5740,13 +5878,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="C244" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="D244" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5754,13 +5892,13 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C245" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="D245" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5768,13 +5906,13 @@
         <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="C246" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="D246" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5782,13 +5920,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="C247" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="D247" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5796,13 +5934,13 @@
         <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C248" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="D248" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5810,13 +5948,13 @@
         <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="C249" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="D249" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5824,13 +5962,13 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C250" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="D250" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5838,13 +5976,13 @@
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="C251" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="D251" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5852,13 +5990,13 @@
         <v>240</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C252" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="D252" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5866,13 +6004,13 @@
         <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C253" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="D253" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5880,13 +6018,13 @@
         <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C254" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="D254" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5894,13 +6032,13 @@
         <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="C255" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="D255" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5908,13 +6046,13 @@
         <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C256" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="D256" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5922,13 +6060,13 @@
         <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C257" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="D257" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5936,13 +6074,13 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C258" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="D258" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5950,13 +6088,13 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="C259" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="D259" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5964,13 +6102,13 @@
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C260" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="D260" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5978,13 +6116,13 @@
         <v>43</v>
       </c>
       <c r="B261" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C261" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="D261" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5992,13 +6130,13 @@
         <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C262" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="D262" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6006,13 +6144,13 @@
         <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C263" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="D263" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6020,13 +6158,13 @@
         <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C264" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="D264" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6034,13 +6172,13 @@
         <v>250</v>
       </c>
       <c r="B265" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="C265" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="D265" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6048,13 +6186,13 @@
         <v>251</v>
       </c>
       <c r="B266" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="C266" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="D266" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6062,13 +6200,13 @@
         <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C267" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="D267" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6076,13 +6214,13 @@
         <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="C268" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="D268" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6090,13 +6228,13 @@
         <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C269" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="D269" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6104,13 +6242,13 @@
         <v>48</v>
       </c>
       <c r="B270" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="D270" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6118,13 +6256,13 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C271" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="D271" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6132,13 +6270,13 @@
         <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C272" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="D272" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6146,13 +6284,13 @@
         <v>255</v>
       </c>
       <c r="B273" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="C273" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="D273" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6160,13 +6298,13 @@
         <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="C274" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="D274" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6174,13 +6312,13 @@
         <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C275" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="D275" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6188,13 +6326,13 @@
         <v>257</v>
       </c>
       <c r="B276" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="C276" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="D276" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6202,13 +6340,13 @@
         <v>258</v>
       </c>
       <c r="B277" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="C277" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="D277" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6216,13 +6354,13 @@
         <v>50</v>
       </c>
       <c r="B278" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C278" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="D278" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6230,13 +6368,13 @@
         <v>259</v>
       </c>
       <c r="B279" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C279" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="D279" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6244,13 +6382,13 @@
         <v>260</v>
       </c>
       <c r="B280" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C280" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="D280" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6258,13 +6396,13 @@
         <v>56</v>
       </c>
       <c r="B281" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C281" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="D281" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6272,13 +6410,13 @@
         <v>261</v>
       </c>
       <c r="B282" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C282" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="D282" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6286,13 +6424,13 @@
         <v>262</v>
       </c>
       <c r="B283" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="C283" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="D283" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6300,13 +6438,13 @@
         <v>263</v>
       </c>
       <c r="B284" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="C284" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="D284" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6314,13 +6452,13 @@
         <v>264</v>
       </c>
       <c r="B285" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="C285" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="D285" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6328,13 +6466,13 @@
         <v>265</v>
       </c>
       <c r="B286" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C286" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="D286" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6342,13 +6480,13 @@
         <v>266</v>
       </c>
       <c r="B287" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C287" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="D287" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6356,13 +6494,13 @@
         <v>267</v>
       </c>
       <c r="B288" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C288" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="D288" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6370,13 +6508,13 @@
         <v>268</v>
       </c>
       <c r="B289" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="C289" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="D289" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6384,13 +6522,13 @@
         <v>269</v>
       </c>
       <c r="B290" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C290" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="D290" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6398,13 +6536,13 @@
         <v>270</v>
       </c>
       <c r="B291" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="C291" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="D291" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6412,13 +6550,13 @@
         <v>271</v>
       </c>
       <c r="B292" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C292" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="D292" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6426,13 +6564,13 @@
         <v>62</v>
       </c>
       <c r="B293" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C293" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="D293" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6440,13 +6578,13 @@
         <v>272</v>
       </c>
       <c r="B294" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="C294" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="D294" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6454,13 +6592,335 @@
         <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="C295" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="D295" t="s">
-        <v>652</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>65</v>
+      </c>
+      <c r="B296" t="s">
+        <v>354</v>
+      </c>
+      <c r="C296" t="s">
+        <v>679</v>
+      </c>
+      <c r="D296" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>274</v>
+      </c>
+      <c r="B297" t="s">
+        <v>559</v>
+      </c>
+      <c r="C297" t="s">
+        <v>679</v>
+      </c>
+      <c r="D297" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>275</v>
+      </c>
+      <c r="B298" t="s">
+        <v>560</v>
+      </c>
+      <c r="C298" t="s">
+        <v>679</v>
+      </c>
+      <c r="D298" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>67</v>
+      </c>
+      <c r="B299" t="s">
+        <v>356</v>
+      </c>
+      <c r="C299" t="s">
+        <v>680</v>
+      </c>
+      <c r="D299" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>276</v>
+      </c>
+      <c r="B300" t="s">
+        <v>561</v>
+      </c>
+      <c r="C300" t="s">
+        <v>680</v>
+      </c>
+      <c r="D300" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>277</v>
+      </c>
+      <c r="B301" t="s">
+        <v>562</v>
+      </c>
+      <c r="C301" t="s">
+        <v>680</v>
+      </c>
+      <c r="D301" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>278</v>
+      </c>
+      <c r="B302" t="s">
+        <v>563</v>
+      </c>
+      <c r="C302" t="s">
+        <v>681</v>
+      </c>
+      <c r="D302" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>279</v>
+      </c>
+      <c r="B303" t="s">
+        <v>564</v>
+      </c>
+      <c r="C303" t="s">
+        <v>681</v>
+      </c>
+      <c r="D303" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>280</v>
+      </c>
+      <c r="B304" t="s">
+        <v>565</v>
+      </c>
+      <c r="C304" t="s">
+        <v>681</v>
+      </c>
+      <c r="D304" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>281</v>
+      </c>
+      <c r="B305" t="s">
+        <v>566</v>
+      </c>
+      <c r="C305" t="s">
+        <v>682</v>
+      </c>
+      <c r="D305" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>282</v>
+      </c>
+      <c r="B306" t="s">
+        <v>567</v>
+      </c>
+      <c r="C306" t="s">
+        <v>682</v>
+      </c>
+      <c r="D306" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>283</v>
+      </c>
+      <c r="B307" t="s">
+        <v>568</v>
+      </c>
+      <c r="C307" t="s">
+        <v>682</v>
+      </c>
+      <c r="D307" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>284</v>
+      </c>
+      <c r="B308" t="s">
+        <v>569</v>
+      </c>
+      <c r="C308" t="s">
+        <v>683</v>
+      </c>
+      <c r="D308" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>285</v>
+      </c>
+      <c r="B309" t="s">
+        <v>570</v>
+      </c>
+      <c r="C309" t="s">
+        <v>683</v>
+      </c>
+      <c r="D309" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>286</v>
+      </c>
+      <c r="B310" t="s">
+        <v>571</v>
+      </c>
+      <c r="C310" t="s">
+        <v>683</v>
+      </c>
+      <c r="D310" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>287</v>
+      </c>
+      <c r="B311" t="s">
+        <v>572</v>
+      </c>
+      <c r="C311" t="s">
+        <v>684</v>
+      </c>
+      <c r="D311" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>288</v>
+      </c>
+      <c r="B312" t="s">
+        <v>573</v>
+      </c>
+      <c r="C312" t="s">
+        <v>684</v>
+      </c>
+      <c r="D312" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>289</v>
+      </c>
+      <c r="B313" t="s">
+        <v>574</v>
+      </c>
+      <c r="C313" t="s">
+        <v>684</v>
+      </c>
+      <c r="D313" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>68</v>
+      </c>
+      <c r="B314" t="s">
+        <v>357</v>
+      </c>
+      <c r="C314" t="s">
+        <v>685</v>
+      </c>
+      <c r="D314" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>290</v>
+      </c>
+      <c r="B315" t="s">
+        <v>357</v>
+      </c>
+      <c r="C315" t="s">
+        <v>685</v>
+      </c>
+      <c r="D315" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>291</v>
+      </c>
+      <c r="B316" t="s">
+        <v>575</v>
+      </c>
+      <c r="C316" t="s">
+        <v>686</v>
+      </c>
+      <c r="D316" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>292</v>
+      </c>
+      <c r="B317" t="s">
+        <v>576</v>
+      </c>
+      <c r="C317" t="s">
+        <v>686</v>
+      </c>
+      <c r="D317" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>70</v>
+      </c>
+      <c r="B318" t="s">
+        <v>359</v>
+      </c>
+      <c r="C318" t="s">
+        <v>686</v>
+      </c>
+      <c r="D318" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="797">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -895,6 +895,129 @@
     <t xml:space="preserve">圣者的典范  </t>
   </si>
   <si>
+    <t xml:space="preserve">老师的要求非常严格。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们在选择学生时非常严格。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法律被严格执行。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">埃及以金字塔著称。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">张旭以擅写草体著称。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他以智慧和礼貌而著称。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">把混合物倒进准备好的罐子里。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个罐子里面都被喷上了漆。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">罐子里的糖果在孩子们间分发。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">凳子是用塑料做的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">然而这还不是首批塑料。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这些书用塑料印刷和装订。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">人类的肉体包含脂肪和肌肉。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这面墙包含的范围是40英里。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤气生产包含于安全气体爆炸。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他面临一项起诉。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他面临两难选择。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">该建议面临艰难阻碍。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">那个公司被课以罚款。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">因未付税款，我们家被处以高额罚款。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000多个司机收到了汽车罚款通知电话。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他因参与暗杀史蒂芬布朗获刑5年。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">成立四公司用虚假材料骗贷9。5亿元五巨骗均获刑。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">她是在新西兰基督城宫廷剧院的文学经理。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">找找看，明年的暑假新西兰基督城是你旅游的目标。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四小时21分钟之后，我们准点到达基督城火车站。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他提议自己做议会候选人。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">议会一致批准了那项法案。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">议会必须在年底前解散。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">疫情统计分析  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">动植物疫情  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">禽流感疫情  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他冲破了敌人的封锁线。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大楼第一层的入口被封锁了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新铺砌导致许多街道被封锁。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们把废弃物烧掉。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们非法倾倒废弃物。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这个废弃物被铺到地里。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我从未见过他。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他从未去过那儿。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他从未见过大海。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1747,6 +1870,129 @@
     <t>The Perfect Example of a Great Saint.</t>
   </si>
   <si>
+    <t>The teacher's demands are very severe.</t>
+  </si>
+  <si>
+    <t>We choose our students very selectively.</t>
+  </si>
+  <si>
+    <t>The laws are stringently enforced.</t>
+  </si>
+  <si>
+    <t>Egypt is famous for its pyramids.</t>
+  </si>
+  <si>
+    <t>Zhang Xu is renowned for his cursive handwriting.</t>
+  </si>
+  <si>
+    <t>He was distinguished for his wit and politeness.</t>
+  </si>
+  <si>
+    <t>Tip the mixture into the prepared tin.</t>
+  </si>
+  <si>
+    <t>The inside of each can is sprayed with lacquer.</t>
+  </si>
+  <si>
+    <t>The candy in the jar was divided among the children.</t>
+  </si>
+  <si>
+    <t>The chairs were made out of plastic.</t>
+  </si>
+  <si>
+    <t>It wasn't the first plastic, however.</t>
+  </si>
+  <si>
+    <t>The books were printed and bound in plastic.</t>
+  </si>
+  <si>
+    <t>The flesh of a human contains fat and muscle.</t>
+  </si>
+  <si>
+    <t>The compass of the wall was about forty miles.</t>
+  </si>
+  <si>
+    <t>Coal gas production became involved with safe gas explosions.</t>
+  </si>
+  <si>
+    <t>A prosecution was instituted against him.</t>
+  </si>
+  <si>
+    <t>He's facing some difficult choices.</t>
+  </si>
+  <si>
+    <t>The proposal faces tough sledding.</t>
+  </si>
+  <si>
+    <t>The company was assessed with a fine.</t>
+  </si>
+  <si>
+    <t>Our family was stung for unpaid taxes.</t>
+  </si>
+  <si>
+    <t>More than 1000 drivers receive car phone fine.</t>
+  </si>
+  <si>
+    <t>He was given five years for his part in a later plot to kill Stephen Brown.</t>
+  </si>
+  <si>
+    <t>Five nobblers was sentenced for a fraud of950million to establish four companies with fake materials.</t>
+  </si>
+  <si>
+    <t>She is the Literary Manager of The Court Theatre in Christchurch, New Zealand.</t>
+  </si>
+  <si>
+    <t>To find out, make Christchurch your next vacation destination.</t>
+  </si>
+  <si>
+    <t>Right on time, after four hours and 21 minutes, we drew into Christchurch station.</t>
+  </si>
+  <si>
+    <t>He is proposing to stand for Parliament.</t>
+  </si>
+  <si>
+    <t>The senate unanimously approved the bill.</t>
+  </si>
+  <si>
+    <t>Parliament must be dissolved by the end of the year.</t>
+  </si>
+  <si>
+    <t>Data analysis.</t>
+  </si>
+  <si>
+    <t>animal or plant epidemic.</t>
+  </si>
+  <si>
+    <t>bird flu epidemic situation.</t>
+  </si>
+  <si>
+    <t>He was able to break through the enemy lines.</t>
+  </si>
+  <si>
+    <t>The ground-floor entrance is kept locked.</t>
+  </si>
+  <si>
+    <t>The repaving results in many blocked streets.</t>
+  </si>
+  <si>
+    <t>They burned off the waste.</t>
+  </si>
+  <si>
+    <t>They dumped the waste illegally.</t>
+  </si>
+  <si>
+    <t>The waste is being spread on fields.</t>
+  </si>
+  <si>
+    <t>I never met him.</t>
+  </si>
+  <si>
+    <t>He has never been there.</t>
+  </si>
+  <si>
+    <t>He's never seen the sea.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -2077,6 +2323,48 @@
     <t>圣者</t>
   </si>
   <si>
+    <t>严格</t>
+  </si>
+  <si>
+    <t>著称</t>
+  </si>
+  <si>
+    <t>罐子</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>面临</t>
+  </si>
+  <si>
+    <t>罚款</t>
+  </si>
+  <si>
+    <t>获刑</t>
+  </si>
+  <si>
+    <t>基督城</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>疫情</t>
+  </si>
+  <si>
+    <t>封锁</t>
+  </si>
+  <si>
+    <t>废弃物</t>
+  </si>
+  <si>
+    <t>从未</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -2111,6 +2399,12 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2493,13 +2787,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2507,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="D3" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2521,13 +2815,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="D4" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2535,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2549,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2563,13 +2857,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2577,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="D8" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2591,13 +2885,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2605,13 +2899,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="D10" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2619,13 +2913,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="D11" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2633,13 +2927,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="D12" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2647,13 +2941,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2661,13 +2955,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2675,13 +2969,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2689,13 +2983,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="C16" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2703,13 +2997,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2717,13 +3011,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="D18" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2731,13 +3025,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="D19" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2745,13 +3039,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2759,13 +3053,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2773,13 +3067,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2787,13 +3081,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2801,13 +3095,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2815,13 +3109,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2829,13 +3123,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="D26" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2843,13 +3137,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="D27" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2857,13 +3151,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="D28" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2871,13 +3165,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2885,13 +3179,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2899,13 +3193,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="D31" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2913,13 +3207,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="D32" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2927,13 +3221,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="D33" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2941,13 +3235,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="D34" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2955,13 +3249,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="D35" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2969,13 +3263,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C36" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="D36" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2983,13 +3277,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="D37" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2997,13 +3291,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="D38" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3011,13 +3305,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="D39" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3025,13 +3319,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="C40" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="D40" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3039,13 +3333,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="D41" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3053,13 +3347,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="D42" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3067,13 +3361,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="D43" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3081,13 +3375,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="D44" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3095,13 +3389,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="D45" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3109,13 +3403,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="D46" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3123,13 +3417,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="D47" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3137,13 +3431,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="C48" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="D48" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3151,13 +3445,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="D49" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3165,13 +3459,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="C50" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="D50" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3179,13 +3473,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="D51" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3193,13 +3487,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="C52" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="D52" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3207,13 +3501,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="D53" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3221,13 +3515,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="D54" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3235,13 +3529,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C55" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="D55" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3249,13 +3543,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="D56" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3263,13 +3557,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
       <c r="D57" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3277,13 +3571,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="D58" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3291,13 +3585,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="D59" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3305,13 +3599,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="C60" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="D60" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3319,13 +3613,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="D61" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3333,13 +3627,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="C62" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="D62" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3347,13 +3641,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="D63" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3361,13 +3655,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="D64" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3375,13 +3669,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="C65" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="D65" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3389,13 +3683,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="D66" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3403,13 +3697,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="D67" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3417,13 +3711,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="C68" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="D68" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3431,13 +3725,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="D69" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3445,13 +3739,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="C70" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="D70" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3459,13 +3753,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="C71" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="D71" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3473,13 +3767,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="D72" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3487,13 +3781,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="D73" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3501,13 +3795,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="D74" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3515,13 +3809,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="D75" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3529,13 +3823,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="D76" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3543,13 +3837,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C77" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="D77" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3557,13 +3851,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="C78" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="D78" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3571,13 +3865,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="D79" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3585,13 +3879,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C80" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="D80" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3599,13 +3893,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="C81" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="D81" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3613,13 +3907,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="D82" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3627,13 +3921,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="C83" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="D83" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3641,13 +3935,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="D84" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3655,13 +3949,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="D85" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3669,13 +3963,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="D86" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3683,13 +3977,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="D87" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3697,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="C88" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="D88" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3711,13 +4005,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="D89" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3725,13 +4019,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="C90" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="D90" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3739,13 +4033,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="D91" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3753,13 +4047,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="C92" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="D92" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3767,13 +4061,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="C93" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="D93" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3781,13 +4075,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="C94" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="D94" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3795,13 +4089,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="C95" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="D95" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3809,13 +4103,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="C96" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="D96" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3823,13 +4117,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="D97" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3837,13 +4131,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="D98" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3851,13 +4145,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C99" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="D99" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3865,13 +4159,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="D100" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3879,13 +4173,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="C101" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="D101" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3893,13 +4187,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="D102" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3907,13 +4201,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="C103" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="D103" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3921,13 +4215,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="C104" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="D104" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3935,13 +4229,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="D105" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3949,13 +4243,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="C106" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="D106" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3963,13 +4257,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="C107" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="D107" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3977,13 +4271,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="C108" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="D108" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3991,13 +4285,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="D109" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4005,13 +4299,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C110" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="D110" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4019,13 +4313,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="C111" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="D111" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4033,13 +4327,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="C112" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="D112" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4047,13 +4341,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="D113" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4061,13 +4355,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="C114" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="D114" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4075,13 +4369,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="C115" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="D115" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4089,13 +4383,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="D116" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4103,13 +4397,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="C117" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="D117" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4117,13 +4411,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="D118" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4131,13 +4425,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="D119" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4145,13 +4439,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="C120" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="D120" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4159,13 +4453,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="C121" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="D121" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4173,13 +4467,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="C122" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="D122" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4187,13 +4481,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="D123" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4201,13 +4495,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C124" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="D124" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4215,13 +4509,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="C125" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="D125" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4229,13 +4523,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="C126" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="D126" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4243,13 +4537,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="C127" t="s">
-        <v>620</v>
+        <v>702</v>
       </c>
       <c r="D127" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4257,13 +4551,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="D128" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4271,13 +4565,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="C129" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="D129" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4285,13 +4579,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="C130" t="s">
-        <v>621</v>
+        <v>703</v>
       </c>
       <c r="D130" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4299,13 +4593,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="C131" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="D131" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4313,13 +4607,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="C132" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="D132" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4327,13 +4621,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="C133" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="D133" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4341,13 +4635,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="C134" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="D134" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4355,13 +4649,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="C135" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="D135" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4369,13 +4663,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="C136" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="D136" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4383,13 +4677,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C137" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="D137" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4397,13 +4691,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="C138" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="D138" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4411,13 +4705,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C139" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="D139" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4425,13 +4719,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="C140" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="D140" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4439,13 +4733,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="D141" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4453,13 +4747,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="C142" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="D142" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4467,13 +4761,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="C143" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="D143" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4481,13 +4775,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="C144" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="D144" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4495,13 +4789,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="C145" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="D145" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4509,13 +4803,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="C146" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="D146" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4523,13 +4817,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="D147" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4537,13 +4831,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C148" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="D148" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4551,13 +4845,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="C149" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="D149" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4565,13 +4859,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="C150" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="D150" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4579,13 +4873,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="C151" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="D151" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4593,13 +4887,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C152" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="D152" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4607,13 +4901,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="C153" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="D153" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4621,13 +4915,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="C154" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="D154" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4635,13 +4929,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C155" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="D155" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4649,13 +4943,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="C156" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="D156" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4663,13 +4957,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="C157" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="D157" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4677,13 +4971,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="C158" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="D158" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4691,13 +4985,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="C159" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="D159" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4705,13 +4999,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="C160" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="D160" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4719,24 +5013,24 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="C161" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="D161" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="C162" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="D162" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4744,13 +5038,13 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="C163" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="D163" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4758,13 +5052,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="C164" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="D164" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4772,13 +5066,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="C165" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="D165" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4786,13 +5080,13 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="C166" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="D166" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4800,13 +5094,13 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="C167" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="D167" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4814,13 +5108,13 @@
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="C168" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="D168" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4828,13 +5122,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="C169" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="D169" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4842,13 +5136,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C170" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="D170" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4856,13 +5150,13 @@
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="C171" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="D171" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4870,13 +5164,13 @@
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="C172" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="D172" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4884,13 +5178,13 @@
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="C173" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="D173" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4898,13 +5192,13 @@
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="C174" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="D174" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4912,13 +5206,13 @@
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="C175" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="D175" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4926,13 +5220,13 @@
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="C176" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="D176" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4940,13 +5234,13 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="C177" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="D177" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4954,13 +5248,13 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="D178" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4968,13 +5262,13 @@
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C179" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="D179" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4982,13 +5276,13 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="D180" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4996,13 +5290,13 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="C181" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="D181" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5010,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="C182" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="D182" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5024,13 +5318,13 @@
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="C183" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="D183" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5038,13 +5332,13 @@
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="C184" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="D184" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5052,13 +5346,13 @@
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C185" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="D185" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5066,13 +5360,13 @@
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="C186" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="D186" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5080,13 +5374,13 @@
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="C187" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="D187" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5094,13 +5388,13 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C188" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="D188" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5108,13 +5402,13 @@
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="C189" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="D189" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5122,13 +5416,13 @@
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="C190" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="D190" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5136,13 +5430,13 @@
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="C191" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="D191" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5150,13 +5444,13 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="C192" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="D192" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5164,13 +5458,13 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="C193" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="D193" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5178,13 +5472,13 @@
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="C194" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="D194" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5192,13 +5486,13 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="C195" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="D195" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5206,13 +5500,13 @@
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="C196" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="D196" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5220,13 +5514,13 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="D197" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5234,13 +5528,13 @@
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="C198" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="D198" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5248,13 +5542,13 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="C199" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="D199" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5262,13 +5556,13 @@
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="C200" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="D200" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5276,13 +5570,13 @@
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="C201" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="D201" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5290,13 +5584,13 @@
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="D202" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5304,13 +5598,13 @@
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="C203" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="D203" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5318,13 +5612,13 @@
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="C204" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="D204" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5332,13 +5626,13 @@
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="C205" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="D205" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5346,13 +5640,13 @@
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="C206" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="D206" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5360,13 +5654,13 @@
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="C207" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="D207" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5374,13 +5668,13 @@
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="C208" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="D208" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5388,13 +5682,13 @@
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="C209" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="D209" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5402,13 +5696,13 @@
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="C210" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="D210" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5416,13 +5710,13 @@
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="C211" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="D211" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5430,13 +5724,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="C212" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="D212" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5444,13 +5738,13 @@
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="C213" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="D213" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5458,13 +5752,13 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="C214" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="D214" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5472,13 +5766,13 @@
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="C215" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="D215" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5486,13 +5780,13 @@
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C216" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="D216" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5500,13 +5794,13 @@
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C217" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="D217" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5514,13 +5808,13 @@
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="D218" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5528,13 +5822,13 @@
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="C219" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="D219" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5542,13 +5836,13 @@
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="C220" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="D220" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5556,13 +5850,13 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="C221" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="D221" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5570,13 +5864,13 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="C222" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="D222" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5584,13 +5878,13 @@
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="C223" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="D223" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5598,13 +5892,13 @@
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="C224" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="D224" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5612,13 +5906,13 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="C225" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="D225" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5626,13 +5920,13 @@
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="C226" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="D226" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5640,13 +5934,13 @@
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="C227" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="D227" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5654,13 +5948,13 @@
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="C228" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="D228" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5668,13 +5962,13 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="C229" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="D229" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5682,13 +5976,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="C230" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="D230" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5696,13 +5990,13 @@
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="C231" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="D231" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5710,13 +6004,13 @@
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="C232" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="D232" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5724,13 +6018,13 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="C233" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="D233" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5738,13 +6032,13 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="C234" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="D234" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5752,13 +6046,13 @@
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="C235" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="D235" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5766,13 +6060,13 @@
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C236" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="D236" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5780,13 +6074,13 @@
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C237" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="D237" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5794,13 +6088,13 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C238" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="D238" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5808,13 +6102,13 @@
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="C239" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="D239" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5822,13 +6116,13 @@
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="C240" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="D240" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5836,13 +6130,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="C241" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="D241" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5850,13 +6144,13 @@
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="C242" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="D242" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5864,13 +6158,13 @@
         <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="C243" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="D243" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5878,13 +6172,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="C244" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="D244" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5892,13 +6186,13 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="C245" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="D245" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5906,13 +6200,13 @@
         <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="C246" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="D246" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5920,13 +6214,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C247" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="D247" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5934,13 +6228,13 @@
         <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="C248" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D248" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5948,13 +6242,13 @@
         <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="C249" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D249" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5962,13 +6256,13 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="C250" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="D250" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5976,13 +6270,13 @@
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="C251" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="D251" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5990,13 +6284,13 @@
         <v>240</v>
       </c>
       <c r="B252" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="C252" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="D252" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6004,13 +6298,13 @@
         <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="C253" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="D253" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6018,13 +6312,13 @@
         <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="C254" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="D254" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6032,13 +6326,13 @@
         <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="C255" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="D255" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6046,13 +6340,13 @@
         <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="C256" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="D256" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6060,13 +6354,13 @@
         <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="C257" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="D257" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6074,13 +6368,13 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="C258" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="D258" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6088,13 +6382,13 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="C259" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="D259" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6102,13 +6396,13 @@
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="C260" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="D260" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6116,13 +6410,13 @@
         <v>43</v>
       </c>
       <c r="B261" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="D261" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6130,13 +6424,13 @@
         <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="C262" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="D262" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6144,13 +6438,13 @@
         <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="C263" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="D263" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6158,13 +6452,13 @@
         <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="D264" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6172,13 +6466,13 @@
         <v>250</v>
       </c>
       <c r="B265" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="C265" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="D265" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6186,13 +6480,13 @@
         <v>251</v>
       </c>
       <c r="B266" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="C266" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="D266" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6200,13 +6494,13 @@
         <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C267" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="D267" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6214,13 +6508,13 @@
         <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="C268" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="D268" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6228,13 +6522,13 @@
         <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="C269" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="D269" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6242,13 +6536,13 @@
         <v>48</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C270" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="D270" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6256,13 +6550,13 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="C271" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="D271" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6270,13 +6564,13 @@
         <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C272" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="D272" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6284,13 +6578,13 @@
         <v>255</v>
       </c>
       <c r="B273" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="C273" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="D273" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6298,13 +6592,13 @@
         <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="C274" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="D274" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6312,13 +6606,13 @@
         <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="C275" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="D275" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6326,13 +6620,13 @@
         <v>257</v>
       </c>
       <c r="B276" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="C276" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="D276" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6340,13 +6634,13 @@
         <v>258</v>
       </c>
       <c r="B277" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="C277" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="D277" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6354,13 +6648,13 @@
         <v>50</v>
       </c>
       <c r="B278" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C278" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="D278" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6368,13 +6662,13 @@
         <v>259</v>
       </c>
       <c r="B279" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="C279" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="D279" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6382,13 +6676,13 @@
         <v>260</v>
       </c>
       <c r="B280" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C280" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="D280" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6396,13 +6690,13 @@
         <v>56</v>
       </c>
       <c r="B281" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C281" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="D281" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6410,13 +6704,13 @@
         <v>261</v>
       </c>
       <c r="B282" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="C282" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="D282" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6424,13 +6718,13 @@
         <v>262</v>
       </c>
       <c r="B283" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="C283" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="D283" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6438,13 +6732,13 @@
         <v>263</v>
       </c>
       <c r="B284" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="C284" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="D284" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6452,13 +6746,13 @@
         <v>264</v>
       </c>
       <c r="B285" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="C285" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="D285" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6466,13 +6760,13 @@
         <v>265</v>
       </c>
       <c r="B286" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="C286" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="D286" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6480,13 +6774,13 @@
         <v>266</v>
       </c>
       <c r="B287" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="C287" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="D287" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6494,13 +6788,13 @@
         <v>267</v>
       </c>
       <c r="B288" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="C288" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="D288" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6508,13 +6802,13 @@
         <v>268</v>
       </c>
       <c r="B289" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="C289" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="D289" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6522,13 +6816,13 @@
         <v>269</v>
       </c>
       <c r="B290" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="C290" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="D290" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6536,13 +6830,13 @@
         <v>270</v>
       </c>
       <c r="B291" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="C291" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="D291" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6550,13 +6844,13 @@
         <v>271</v>
       </c>
       <c r="B292" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="C292" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="D292" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6564,13 +6858,13 @@
         <v>62</v>
       </c>
       <c r="B293" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="C293" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="D293" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6578,13 +6872,13 @@
         <v>272</v>
       </c>
       <c r="B294" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="C294" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="D294" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6592,13 +6886,13 @@
         <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="C295" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="D295" t="s">
-        <v>697</v>
+        <v>793</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6606,13 +6900,13 @@
         <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="C296" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="D296" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6620,13 +6914,13 @@
         <v>274</v>
       </c>
       <c r="B297" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="D297" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6634,13 +6928,13 @@
         <v>275</v>
       </c>
       <c r="B298" t="s">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="C298" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="D298" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6648,13 +6942,13 @@
         <v>67</v>
       </c>
       <c r="B299" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="C299" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="D299" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6662,13 +6956,13 @@
         <v>276</v>
       </c>
       <c r="B300" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="C300" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="D300" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6676,13 +6970,13 @@
         <v>277</v>
       </c>
       <c r="B301" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="C301" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="D301" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6690,13 +6984,13 @@
         <v>278</v>
       </c>
       <c r="B302" t="s">
-        <v>563</v>
+        <v>604</v>
       </c>
       <c r="C302" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="D302" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6704,13 +6998,13 @@
         <v>279</v>
       </c>
       <c r="B303" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="C303" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="D303" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6718,13 +7012,13 @@
         <v>280</v>
       </c>
       <c r="B304" t="s">
-        <v>565</v>
+        <v>606</v>
       </c>
       <c r="C304" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="D304" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6732,13 +7026,13 @@
         <v>281</v>
       </c>
       <c r="B305" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="C305" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="D305" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6746,13 +7040,13 @@
         <v>282</v>
       </c>
       <c r="B306" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="C306" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="D306" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6760,13 +7054,13 @@
         <v>283</v>
       </c>
       <c r="B307" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="C307" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="D307" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6774,13 +7068,13 @@
         <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="C308" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="D308" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6788,13 +7082,13 @@
         <v>285</v>
       </c>
       <c r="B309" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="C309" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="D309" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6802,13 +7096,13 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="C310" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="D310" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6816,13 +7110,13 @@
         <v>287</v>
       </c>
       <c r="B311" t="s">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="C311" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="D311" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6830,13 +7124,13 @@
         <v>288</v>
       </c>
       <c r="B312" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="C312" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="D312" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6844,13 +7138,13 @@
         <v>289</v>
       </c>
       <c r="B313" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="C313" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="D313" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6858,13 +7152,13 @@
         <v>68</v>
       </c>
       <c r="B314" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="C314" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="D314" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6872,13 +7166,13 @@
         <v>290</v>
       </c>
       <c r="B315" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="C315" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="D315" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6886,13 +7180,13 @@
         <v>291</v>
       </c>
       <c r="B316" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="C316" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="D316" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6900,13 +7194,13 @@
         <v>292</v>
       </c>
       <c r="B317" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="C317" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="D317" t="s">
-        <v>698</v>
+        <v>794</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6914,13 +7208,587 @@
         <v>70</v>
       </c>
       <c r="B318" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="C318" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="D318" t="s">
-        <v>698</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>293</v>
+      </c>
+      <c r="B319" t="s">
+        <v>618</v>
+      </c>
+      <c r="C319" t="s">
+        <v>769</v>
+      </c>
+      <c r="D319" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>294</v>
+      </c>
+      <c r="B320" t="s">
+        <v>619</v>
+      </c>
+      <c r="C320" t="s">
+        <v>769</v>
+      </c>
+      <c r="D320" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>295</v>
+      </c>
+      <c r="B321" t="s">
+        <v>620</v>
+      </c>
+      <c r="C321" t="s">
+        <v>769</v>
+      </c>
+      <c r="D321" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>296</v>
+      </c>
+      <c r="B322" t="s">
+        <v>621</v>
+      </c>
+      <c r="C322" t="s">
+        <v>770</v>
+      </c>
+      <c r="D322" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>297</v>
+      </c>
+      <c r="B323" t="s">
+        <v>622</v>
+      </c>
+      <c r="C323" t="s">
+        <v>770</v>
+      </c>
+      <c r="D323" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>298</v>
+      </c>
+      <c r="B324" t="s">
+        <v>623</v>
+      </c>
+      <c r="C324" t="s">
+        <v>770</v>
+      </c>
+      <c r="D324" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>299</v>
+      </c>
+      <c r="B325" t="s">
+        <v>624</v>
+      </c>
+      <c r="C325" t="s">
+        <v>771</v>
+      </c>
+      <c r="D325" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>300</v>
+      </c>
+      <c r="B326" t="s">
+        <v>625</v>
+      </c>
+      <c r="C326" t="s">
+        <v>771</v>
+      </c>
+      <c r="D326" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>301</v>
+      </c>
+      <c r="B327" t="s">
+        <v>626</v>
+      </c>
+      <c r="C327" t="s">
+        <v>771</v>
+      </c>
+      <c r="D327" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>302</v>
+      </c>
+      <c r="B328" t="s">
+        <v>627</v>
+      </c>
+      <c r="C328" t="s">
+        <v>772</v>
+      </c>
+      <c r="D328" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>303</v>
+      </c>
+      <c r="B329" t="s">
+        <v>628</v>
+      </c>
+      <c r="C329" t="s">
+        <v>772</v>
+      </c>
+      <c r="D329" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>304</v>
+      </c>
+      <c r="B330" t="s">
+        <v>629</v>
+      </c>
+      <c r="C330" t="s">
+        <v>772</v>
+      </c>
+      <c r="D330" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>305</v>
+      </c>
+      <c r="B331" t="s">
+        <v>630</v>
+      </c>
+      <c r="C331" t="s">
+        <v>773</v>
+      </c>
+      <c r="D331" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>306</v>
+      </c>
+      <c r="B332" t="s">
+        <v>631</v>
+      </c>
+      <c r="C332" t="s">
+        <v>773</v>
+      </c>
+      <c r="D332" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>307</v>
+      </c>
+      <c r="B333" t="s">
+        <v>632</v>
+      </c>
+      <c r="C333" t="s">
+        <v>773</v>
+      </c>
+      <c r="D333" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>308</v>
+      </c>
+      <c r="B334" t="s">
+        <v>633</v>
+      </c>
+      <c r="C334" t="s">
+        <v>774</v>
+      </c>
+      <c r="D334" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>309</v>
+      </c>
+      <c r="B335" t="s">
+        <v>634</v>
+      </c>
+      <c r="C335" t="s">
+        <v>774</v>
+      </c>
+      <c r="D335" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>310</v>
+      </c>
+      <c r="B336" t="s">
+        <v>635</v>
+      </c>
+      <c r="C336" t="s">
+        <v>774</v>
+      </c>
+      <c r="D336" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>311</v>
+      </c>
+      <c r="B337" t="s">
+        <v>636</v>
+      </c>
+      <c r="C337" t="s">
+        <v>775</v>
+      </c>
+      <c r="D337" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>312</v>
+      </c>
+      <c r="B338" t="s">
+        <v>637</v>
+      </c>
+      <c r="C338" t="s">
+        <v>775</v>
+      </c>
+      <c r="D338" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>313</v>
+      </c>
+      <c r="B339" t="s">
+        <v>638</v>
+      </c>
+      <c r="C339" t="s">
+        <v>775</v>
+      </c>
+      <c r="D339" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>314</v>
+      </c>
+      <c r="B340" t="s">
+        <v>639</v>
+      </c>
+      <c r="C340" t="s">
+        <v>776</v>
+      </c>
+      <c r="D340" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>315</v>
+      </c>
+      <c r="B341" t="s">
+        <v>640</v>
+      </c>
+      <c r="C341" t="s">
+        <v>776</v>
+      </c>
+      <c r="D341" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>316</v>
+      </c>
+      <c r="B342" t="s">
+        <v>641</v>
+      </c>
+      <c r="C342" t="s">
+        <v>777</v>
+      </c>
+      <c r="D342" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>317</v>
+      </c>
+      <c r="B343" t="s">
+        <v>642</v>
+      </c>
+      <c r="C343" t="s">
+        <v>777</v>
+      </c>
+      <c r="D343" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>318</v>
+      </c>
+      <c r="B344" t="s">
+        <v>643</v>
+      </c>
+      <c r="C344" t="s">
+        <v>777</v>
+      </c>
+      <c r="D344" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>319</v>
+      </c>
+      <c r="B345" t="s">
+        <v>644</v>
+      </c>
+      <c r="C345" t="s">
+        <v>778</v>
+      </c>
+      <c r="D345" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>320</v>
+      </c>
+      <c r="B346" t="s">
+        <v>645</v>
+      </c>
+      <c r="C346" t="s">
+        <v>778</v>
+      </c>
+      <c r="D346" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>321</v>
+      </c>
+      <c r="B347" t="s">
+        <v>646</v>
+      </c>
+      <c r="C347" t="s">
+        <v>778</v>
+      </c>
+      <c r="D347" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>322</v>
+      </c>
+      <c r="B348" t="s">
+        <v>647</v>
+      </c>
+      <c r="C348" t="s">
+        <v>779</v>
+      </c>
+      <c r="D348" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>323</v>
+      </c>
+      <c r="B349" t="s">
+        <v>648</v>
+      </c>
+      <c r="C349" t="s">
+        <v>779</v>
+      </c>
+      <c r="D349" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>324</v>
+      </c>
+      <c r="B350" t="s">
+        <v>649</v>
+      </c>
+      <c r="C350" t="s">
+        <v>779</v>
+      </c>
+      <c r="D350" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>325</v>
+      </c>
+      <c r="B351" t="s">
+        <v>650</v>
+      </c>
+      <c r="C351" t="s">
+        <v>780</v>
+      </c>
+      <c r="D351" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>326</v>
+      </c>
+      <c r="B352" t="s">
+        <v>651</v>
+      </c>
+      <c r="C352" t="s">
+        <v>780</v>
+      </c>
+      <c r="D352" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>327</v>
+      </c>
+      <c r="B353" t="s">
+        <v>652</v>
+      </c>
+      <c r="C353" t="s">
+        <v>780</v>
+      </c>
+      <c r="D353" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>328</v>
+      </c>
+      <c r="B354" t="s">
+        <v>653</v>
+      </c>
+      <c r="C354" t="s">
+        <v>781</v>
+      </c>
+      <c r="D354" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>329</v>
+      </c>
+      <c r="B355" t="s">
+        <v>654</v>
+      </c>
+      <c r="C355" t="s">
+        <v>781</v>
+      </c>
+      <c r="D355" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>330</v>
+      </c>
+      <c r="B356" t="s">
+        <v>655</v>
+      </c>
+      <c r="C356" t="s">
+        <v>781</v>
+      </c>
+      <c r="D356" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>331</v>
+      </c>
+      <c r="B357" t="s">
+        <v>656</v>
+      </c>
+      <c r="C357" t="s">
+        <v>782</v>
+      </c>
+      <c r="D357" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>332</v>
+      </c>
+      <c r="B358" t="s">
+        <v>657</v>
+      </c>
+      <c r="C358" t="s">
+        <v>782</v>
+      </c>
+      <c r="D358" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>333</v>
+      </c>
+      <c r="B359" t="s">
+        <v>658</v>
+      </c>
+      <c r="C359" t="s">
+        <v>782</v>
+      </c>
+      <c r="D359" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_sentences.xlsx
+++ b/Databases/中文_sentences.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="861">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -1018,6 +1018,84 @@
     <t xml:space="preserve">他从未见过大海。  </t>
   </si>
   <si>
+    <t xml:space="preserve">他这人一向奉行好人主义。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在任何时候，我都奉行友谊至上的信念。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他留下一点吝啬的小费。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他是一个吝啬的小傻瓜。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">经常将心脏比作泵。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们使用机器泵在矿井中抽水。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这家公司是专门生产潜水泵的。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">引擎烧坏了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">汽车引擎过热。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">引擎带动机车。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">往复压气机  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">往复平流泵  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">木制螺旋桨的机器看起来过时了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这架飞机的螺旋桨出了点问题，正在维修。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他一喝酒就会胡言乱语。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我不会再忍受你的胡言乱语了。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">别听信谣言。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">谣言在网上散布。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们对谣言毫不在乎。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他拒绝发誓戒除暴力。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">他们对暴力无动于衷。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">暴力不能解决任何问题。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">树藤顺着墙蔓延生长。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大火迅速蔓延到整个村落。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">老师错误地遗漏了他的名字。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">没什么会被遗漏，就接着你上次结束的地方开始。  </t>
+  </si>
+  <si>
     <t>I didn't even mind the lack of an in-flight meal service.</t>
   </si>
   <si>
@@ -1993,6 +2071,84 @@
     <t>He's never seen the sea.</t>
   </si>
   <si>
+    <t>He always tries to get along with everyone.</t>
+  </si>
+  <si>
+    <t>I carry my notions of friendship pretty high at any time.</t>
+  </si>
+  <si>
+    <t>He left a miserly tip.</t>
+  </si>
+  <si>
+    <t>He is a petty little idiot.</t>
+  </si>
+  <si>
+    <t>The comparison of the heart to a pump is a very common one.</t>
+  </si>
+  <si>
+    <t>They used a machine to pump water out of the mine.</t>
+  </si>
+  <si>
+    <t>The company specializes in manufacturing water pumps.</t>
+  </si>
+  <si>
+    <t>The engine burned out.</t>
+  </si>
+  <si>
+    <t>The car engines overheated.</t>
+  </si>
+  <si>
+    <t>The engine drives the wheels.</t>
+  </si>
+  <si>
+    <t>reciprocating compressor.</t>
+  </si>
+  <si>
+    <t>advection Pump.</t>
+  </si>
+  <si>
+    <t>The wooden prop makes the machine look outdated.</t>
+  </si>
+  <si>
+    <t>The propeller of the plane is out of order, and is under repair.</t>
+  </si>
+  <si>
+    <t>Once he starts drinking he talks all sorts of nonsense.</t>
+  </si>
+  <si>
+    <t>I won't stand for your lip any.</t>
+  </si>
+  <si>
+    <t>Don't listen to gossip.</t>
+  </si>
+  <si>
+    <t>Rumors were put about online.</t>
+  </si>
+  <si>
+    <t>They do not give a damn about the rumor.</t>
+  </si>
+  <si>
+    <t>He refused to swear off violence.</t>
+  </si>
+  <si>
+    <t>They're hardened to the violence.</t>
+  </si>
+  <si>
+    <t>Violence can not solve anything.</t>
+  </si>
+  <si>
+    <t>The vine creeps along the wall.</t>
+  </si>
+  <si>
+    <t>The fire spread quickly to the whole village.</t>
+  </si>
+  <si>
+    <t>The teacher missed out his name by mistake.</t>
+  </si>
+  <si>
+    <t>No work will be lost - it just picks up where you left off.</t>
+  </si>
+  <si>
     <t>餐饮</t>
   </si>
   <si>
@@ -2365,6 +2521,39 @@
     <t>从未</t>
   </si>
   <si>
+    <t>奉行</t>
+  </si>
+  <si>
+    <t>吝啬</t>
+  </si>
+  <si>
+    <t>泵</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>往复</t>
+  </si>
+  <si>
+    <t>螺旋桨</t>
+  </si>
+  <si>
+    <t>胡言乱语</t>
+  </si>
+  <si>
+    <t>谣言</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>蔓延</t>
+  </si>
+  <si>
+    <t>遗漏</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -2405,6 +2594,9 @@
   </si>
   <si>
     <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2787,13 +2979,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="D2" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2801,13 +2993,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="D3" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2815,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="D4" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2829,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="D5" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2843,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="D6" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2857,13 +3049,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="D7" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2871,13 +3063,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="D8" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2885,13 +3077,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="D9" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2899,13 +3091,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="D10" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2913,13 +3105,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="D11" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2927,13 +3119,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="D12" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2941,13 +3133,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="D13" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2955,13 +3147,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="D14" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2969,13 +3161,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2983,13 +3175,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>715</v>
       </c>
       <c r="D16" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2997,13 +3189,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="D17" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3011,13 +3203,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="D18" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3025,13 +3217,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="D19" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3039,13 +3231,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="D20" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3053,13 +3245,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="D21" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3067,13 +3259,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>665</v>
+        <v>717</v>
       </c>
       <c r="D22" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3081,13 +3273,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="D23" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3095,13 +3287,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="D24" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3109,13 +3301,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="D25" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3123,13 +3315,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="D26" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3137,13 +3329,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="D27" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3151,13 +3343,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
       <c r="D28" t="s">
-        <v>783</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3165,13 +3357,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C29" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="D29" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3179,13 +3371,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="D30" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3193,13 +3385,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="D31" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3207,13 +3399,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="D32" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3221,13 +3413,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="D33" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3235,13 +3427,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
       <c r="D34" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3249,13 +3441,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="D35" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3263,13 +3455,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C36" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="D36" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3277,13 +3469,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="D37" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3291,13 +3483,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C38" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="D38" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3305,13 +3497,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C39" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="D39" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3319,13 +3511,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C40" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
       <c r="D40" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3333,13 +3525,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C41" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="D41" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3347,13 +3539,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="D42" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3361,13 +3553,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
       <c r="D43" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3375,13 +3567,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="C44" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="D44" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3389,13 +3581,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C45" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="D45" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3403,13 +3595,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="D46" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3417,13 +3609,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="C47" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="D47" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3431,13 +3623,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="C48" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="D48" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3445,13 +3637,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C49" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="D49" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3459,13 +3651,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="D50" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3473,13 +3665,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="D51" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3487,13 +3679,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="C52" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="D52" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3501,13 +3693,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C53" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="D53" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3515,13 +3707,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="D54" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3529,13 +3721,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="D55" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3543,13 +3735,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="D56" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3557,13 +3749,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>678</v>
+        <v>730</v>
       </c>
       <c r="D57" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3571,13 +3763,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
       <c r="D58" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3585,13 +3777,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
       <c r="D59" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3599,13 +3791,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C60" t="s">
-        <v>679</v>
+        <v>731</v>
       </c>
       <c r="D60" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3613,13 +3805,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="D61" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3627,13 +3819,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="D62" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3641,13 +3833,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="C63" t="s">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="D63" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3655,13 +3847,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C64" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="D64" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3669,13 +3861,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="C65" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="D65" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3683,13 +3875,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C66" t="s">
-        <v>681</v>
+        <v>733</v>
       </c>
       <c r="D66" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3697,13 +3889,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C67" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="D67" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3711,13 +3903,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C68" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="D68" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3725,13 +3917,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C69" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="D69" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3739,13 +3931,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="D70" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3753,13 +3945,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="D71" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3767,13 +3959,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="C72" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="D72" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3781,13 +3973,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="D73" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3795,13 +3987,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="D74" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3809,13 +4001,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="C75" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="D75" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3823,13 +4015,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="D76" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3837,13 +4029,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="D77" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3851,13 +4043,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="D78" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3865,13 +4057,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C79" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="D79" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3879,13 +4071,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C80" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="D80" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3893,13 +4085,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="C81" t="s">
-        <v>686</v>
+        <v>738</v>
       </c>
       <c r="D81" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3907,13 +4099,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C82" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="D82" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3921,13 +4113,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C83" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="D83" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3935,13 +4127,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
-        <v>687</v>
+        <v>739</v>
       </c>
       <c r="D84" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3949,13 +4141,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C85" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
       <c r="D85" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3963,13 +4155,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
       <c r="D86" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3977,13 +4169,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
       <c r="D87" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3991,13 +4183,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C88" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="D88" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4005,13 +4197,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C89" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="D89" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4019,13 +4211,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C90" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="D90" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4033,13 +4225,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="C91" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="D91" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4047,13 +4239,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C92" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="D92" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4061,13 +4253,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="C93" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="D93" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4075,13 +4267,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C94" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
       <c r="D94" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4089,13 +4281,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
       <c r="D95" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4103,13 +4295,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C96" t="s">
-        <v>691</v>
+        <v>743</v>
       </c>
       <c r="D96" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4117,13 +4309,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="D97" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4131,13 +4323,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C98" t="s">
-        <v>693</v>
+        <v>745</v>
       </c>
       <c r="D98" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4145,13 +4337,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
-        <v>693</v>
+        <v>745</v>
       </c>
       <c r="D99" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4159,13 +4351,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C100" t="s">
-        <v>693</v>
+        <v>745</v>
       </c>
       <c r="D100" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4173,13 +4365,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C101" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="D101" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4187,13 +4379,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="D102" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4201,13 +4393,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="C103" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="D103" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4215,13 +4407,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="C104" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="D104" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4229,13 +4421,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C105" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="D105" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4243,13 +4435,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="C106" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="D106" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4257,13 +4449,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C107" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="D107" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4271,13 +4463,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C108" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="D108" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4285,13 +4477,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C109" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="D109" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4299,13 +4491,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C110" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="D110" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4313,13 +4505,13 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="C111" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="D111" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4327,13 +4519,13 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C112" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="D112" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4341,13 +4533,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C113" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="D113" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4355,13 +4547,13 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="D114" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4369,13 +4561,13 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="C115" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="D115" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4383,13 +4575,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="D116" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4397,13 +4589,13 @@
         <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="C117" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="D117" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4411,13 +4603,13 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="C118" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="D118" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4425,13 +4617,13 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C119" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="D119" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4439,13 +4631,13 @@
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C120" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="D120" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4453,13 +4645,13 @@
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="C121" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="D121" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4467,13 +4659,13 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C122" t="s">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="D122" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4481,13 +4673,13 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C123" t="s">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="D123" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4495,13 +4687,13 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C124" t="s">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="D124" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4509,13 +4701,13 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="C125" t="s">
-        <v>702</v>
+        <v>754</v>
       </c>
       <c r="D125" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4523,13 +4715,13 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C126" t="s">
-        <v>702</v>
+        <v>754</v>
       </c>
       <c r="D126" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4537,13 +4729,13 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="C127" t="s">
-        <v>702</v>
+        <v>754</v>
       </c>
       <c r="D127" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4551,13 +4743,13 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C128" t="s">
-        <v>703</v>
+        <v>755</v>
       </c>
       <c r="D128" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4565,13 +4757,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C129" t="s">
-        <v>703</v>
+        <v>755</v>
       </c>
       <c r="D129" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4579,13 +4771,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="C130" t="s">
-        <v>703</v>
+        <v>755</v>
       </c>
       <c r="D130" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4593,13 +4785,13 @@
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C131" t="s">
-        <v>704</v>
+        <v>756</v>
       </c>
       <c r="D131" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4607,13 +4799,13 @@
         <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C132" t="s">
-        <v>704</v>
+        <v>756</v>
       </c>
       <c r="D132" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4621,13 +4813,13 @@
         <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="C133" t="s">
-        <v>704</v>
+        <v>756</v>
       </c>
       <c r="D133" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4635,13 +4827,13 @@
         <v>124</v>
       </c>
       <c r="B134" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="C134" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="D134" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4649,13 +4841,13 @@
         <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="C135" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="D135" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4663,13 +4855,13 @@
         <v>126</v>
       </c>
       <c r="B136" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="C136" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="D136" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4677,13 +4869,13 @@
         <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C137" t="s">
-        <v>706</v>
+        <v>758</v>
       </c>
       <c r="D137" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4691,13 +4883,13 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C138" t="s">
-        <v>706</v>
+        <v>758</v>
       </c>
       <c r="D138" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4705,13 +4897,13 @@
         <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C139" t="s">
-        <v>706</v>
+        <v>758</v>
       </c>
       <c r="D139" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4719,13 +4911,13 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C140" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="D140" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4733,13 +4925,13 @@
         <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C141" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="D141" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4747,13 +4939,13 @@
         <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C142" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="D142" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4761,13 +4953,13 @@
         <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C143" t="s">
-        <v>708</v>
+        <v>760</v>
       </c>
       <c r="D143" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4775,13 +4967,13 @@
         <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="C144" t="s">
-        <v>708</v>
+        <v>760</v>
       </c>
       <c r="D144" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4789,13 +4981,13 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C145" t="s">
-        <v>708</v>
+        <v>760</v>
       </c>
       <c r="D145" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4803,13 +4995,13 @@
         <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="C146" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="D146" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4817,13 +5009,13 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="C147" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="D147" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4831,13 +5023,13 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="C148" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="D148" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4845,13 +5037,13 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C149" t="s">
-        <v>710</v>
+        <v>762</v>
       </c>
       <c r="D149" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4859,13 +5051,13 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="C150" t="s">
-        <v>710</v>
+        <v>762</v>
       </c>
       <c r="D150" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4873,13 +5065,13 @@
         <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C151" t="s">
-        <v>710</v>
+        <v>762</v>
       </c>
       <c r="D151" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4887,13 +5079,13 @@
         <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C152" t="s">
-        <v>711</v>
+        <v>763</v>
       </c>
       <c r="D152" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4901,13 +5093,13 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="C153" t="s">
-        <v>711</v>
+        <v>763</v>
       </c>
       <c r="D153" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4915,13 +5107,13 @@
         <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="C154" t="s">
-        <v>711</v>
+        <v>763</v>
       </c>
       <c r="D154" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4929,13 +5121,13 @@
         <v>145</v>
       </c>
       <c r="B155" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="C155" t="s">
-        <v>712</v>
+        <v>764</v>
       </c>
       <c r="D155" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4943,13 +5135,13 @@
         <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>712</v>
+        <v>764</v>
       </c>
       <c r="D156" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4957,13 +5149,13 @@
         <v>147</v>
       </c>
       <c r="B157" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C157" t="s">
-        <v>712</v>
+        <v>764</v>
       </c>
       <c r="D157" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4971,13 +5163,13 @@
         <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="C158" t="s">
-        <v>713</v>
+        <v>765</v>
       </c>
       <c r="D158" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4985,13 +5177,13 @@
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="C159" t="s">
-        <v>713</v>
+        <v>765</v>
       </c>
       <c r="D159" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4999,13 +5191,13 @@
         <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="C160" t="s">
-        <v>713</v>
+        <v>765</v>
       </c>
       <c r="D160" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5013,24 +5205,24 @@
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="C161" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="D161" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="B162" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C162" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="D162" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5038,13 +5230,13 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="C163" t="s">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="D163" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5052,13 +5244,13 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="C164" t="s">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="D164" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5066,13 +5258,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="C165" t="s">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="D165" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5080,13 +5272,13 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="C166" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="D166" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5094,13 +5286,13 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="C167" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="D167" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5108,13 +5300,13 @@
         <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C168" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="D168" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5122,13 +5314,13 @@
         <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C169" t="s">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="D169" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5136,13 +5328,13 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="C170" t="s">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="D170" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5150,13 +5342,13 @@
         <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="C171" t="s">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="D171" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5164,13 +5356,13 @@
         <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="C172" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="D172" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5178,13 +5370,13 @@
         <v>162</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C173" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="D173" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5192,13 +5384,13 @@
         <v>163</v>
       </c>
       <c r="B174" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="C174" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
       <c r="D174" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5206,13 +5398,13 @@
         <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="C175" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
       <c r="D175" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5220,13 +5412,13 @@
         <v>165</v>
       </c>
       <c r="B176" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="C176" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
       <c r="D176" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5234,13 +5426,13 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="C177" t="s">
-        <v>719</v>
+        <v>771</v>
       </c>
       <c r="D177" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5248,13 +5440,13 @@
         <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="C178" t="s">
-        <v>720</v>
+        <v>772</v>
       </c>
       <c r="D178" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5262,13 +5454,13 @@
         <v>168</v>
       </c>
       <c r="B179" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="C179" t="s">
-        <v>720</v>
+        <v>772</v>
       </c>
       <c r="D179" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5276,13 +5468,13 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="C180" t="s">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="D180" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5290,13 +5482,13 @@
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="C181" t="s">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="D181" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5304,13 +5496,13 @@
         <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="C182" t="s">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="D182" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5318,13 +5510,13 @@
         <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C183" t="s">
-        <v>722</v>
+        <v>774</v>
       </c>
       <c r="D183" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5332,13 +5524,13 @@
         <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="C184" t="s">
-        <v>722</v>
+        <v>774</v>
       </c>
       <c r="D184" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5346,13 +5538,13 @@
         <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="C185" t="s">
-        <v>722</v>
+        <v>774</v>
       </c>
       <c r="D185" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5360,13 +5552,13 @@
         <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="C186" t="s">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="D186" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5374,13 +5566,13 @@
         <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C187" t="s">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="D187" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5388,13 +5580,13 @@
         <v>177</v>
       </c>
       <c r="B188" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="C188" t="s">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="D188" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5402,13 +5594,13 @@
         <v>178</v>
       </c>
       <c r="B189" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="C189" t="s">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D189" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5416,13 +5608,13 @@
         <v>179</v>
       </c>
       <c r="B190" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="C190" t="s">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D190" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5430,13 +5622,13 @@
         <v>180</v>
       </c>
       <c r="B191" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="C191" t="s">
-        <v>724</v>
+        <v>776</v>
       </c>
       <c r="D191" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5444,13 +5636,13 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="C192" t="s">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="D192" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5458,13 +5650,13 @@
         <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="C193" t="s">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="D193" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5472,13 +5664,13 @@
         <v>183</v>
       </c>
       <c r="B194" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="C194" t="s">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="D194" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5486,13 +5678,13 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="C195" t="s">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="D195" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5500,13 +5692,13 @@
         <v>185</v>
       </c>
       <c r="B196" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="C196" t="s">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="D196" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5514,13 +5706,13 @@
         <v>186</v>
       </c>
       <c r="B197" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="C197" t="s">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="D197" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5528,13 +5720,13 @@
         <v>187</v>
       </c>
       <c r="B198" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="C198" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="D198" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5542,13 +5734,13 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="C199" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="D199" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5556,13 +5748,13 @@
         <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="C200" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="D200" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5570,13 +5762,13 @@
         <v>190</v>
       </c>
       <c r="B201" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="C201" t="s">
-        <v>728</v>
+        <v>780</v>
       </c>
       <c r="D201" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5584,13 +5776,13 @@
         <v>191</v>
       </c>
       <c r="B202" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="C202" t="s">
-        <v>728</v>
+        <v>780</v>
       </c>
       <c r="D202" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5598,13 +5790,13 @@
         <v>192</v>
       </c>
       <c r="B203" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="C203" t="s">
-        <v>728</v>
+        <v>780</v>
       </c>
       <c r="D203" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5612,13 +5804,13 @@
         <v>193</v>
       </c>
       <c r="B204" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="C204" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="D204" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5626,13 +5818,13 @@
         <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="C205" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="D205" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5640,13 +5832,13 @@
         <v>195</v>
       </c>
       <c r="B206" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="C206" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="D206" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5654,13 +5846,13 @@
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>782</v>
       </c>
       <c r="D207" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5668,13 +5860,13 @@
         <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C208" t="s">
-        <v>730</v>
+        <v>782</v>
       </c>
       <c r="D208" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5682,13 +5874,13 @@
         <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C209" t="s">
-        <v>730</v>
+        <v>782</v>
       </c>
       <c r="D209" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5696,13 +5888,13 @@
         <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="C210" t="s">
-        <v>731</v>
+        <v>783</v>
       </c>
       <c r="D210" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5710,13 +5902,13 @@
         <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="C211" t="s">
-        <v>731</v>
+        <v>783</v>
       </c>
       <c r="D211" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5724,13 +5916,13 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="C212" t="s">
-        <v>731</v>
+        <v>783</v>
       </c>
       <c r="D212" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5738,13 +5930,13 @@
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="C213" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="D213" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5752,13 +5944,13 @@
         <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="C214" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="D214" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5766,13 +5958,13 @@
         <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="C215" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="D215" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5780,13 +5972,13 @@
         <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C216" t="s">
-        <v>733</v>
+        <v>785</v>
       </c>
       <c r="D216" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5794,13 +5986,13 @@
         <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C217" t="s">
-        <v>733</v>
+        <v>785</v>
       </c>
       <c r="D217" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5808,13 +6000,13 @@
         <v>206</v>
       </c>
       <c r="B218" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="C218" t="s">
-        <v>734</v>
+        <v>786</v>
       </c>
       <c r="D218" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5822,13 +6014,13 @@
         <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C219" t="s">
-        <v>734</v>
+        <v>786</v>
       </c>
       <c r="D219" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5836,13 +6028,13 @@
         <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C220" t="s">
-        <v>734</v>
+        <v>786</v>
       </c>
       <c r="D220" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5850,13 +6042,13 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="C221" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="D221" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5864,13 +6056,13 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="C222" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="D222" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5878,13 +6070,13 @@
         <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C223" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="D223" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5892,13 +6084,13 @@
         <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="C224" t="s">
-        <v>736</v>
+        <v>788</v>
       </c>
       <c r="D224" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5906,13 +6098,13 @@
         <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="C225" t="s">
-        <v>736</v>
+        <v>788</v>
       </c>
       <c r="D225" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5920,13 +6112,13 @@
         <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="C226" t="s">
-        <v>736</v>
+        <v>788</v>
       </c>
       <c r="D226" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5934,13 +6126,13 @@
         <v>215</v>
       </c>
       <c r="B227" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="C227" t="s">
-        <v>737</v>
+        <v>789</v>
       </c>
       <c r="D227" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5948,13 +6140,13 @@
         <v>216</v>
       </c>
       <c r="B228" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="C228" t="s">
-        <v>737</v>
+        <v>789</v>
       </c>
       <c r="D228" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5962,13 +6154,13 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="C229" t="s">
-        <v>737</v>
+        <v>789</v>
       </c>
       <c r="D229" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5976,13 +6168,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="C230" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="D230" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5990,13 +6182,13 @@
         <v>219</v>
       </c>
       <c r="B231" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="C231" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="D231" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6004,13 +6196,13 @@
         <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="C232" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="D232" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6018,13 +6210,13 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="C233" t="s">
-        <v>739</v>
+        <v>791</v>
       </c>
       <c r="D233" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6032,13 +6224,13 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="C234" t="s">
-        <v>739</v>
+        <v>791</v>
       </c>
       <c r="D234" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6046,13 +6238,13 @@
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C235" t="s">
-        <v>739</v>
+        <v>791</v>
       </c>
       <c r="D235" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6060,13 +6252,13 @@
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="C236" t="s">
-        <v>740</v>
+        <v>792</v>
       </c>
       <c r="D236" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6074,13 +6266,13 @@
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="C237" t="s">
-        <v>740</v>
+        <v>792</v>
       </c>
       <c r="D237" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6088,13 +6280,13 @@
         <v>226</v>
       </c>
       <c r="B238" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="C238" t="s">
-        <v>740</v>
+        <v>792</v>
       </c>
       <c r="D238" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6102,13 +6294,13 @@
         <v>227</v>
       </c>
       <c r="B239" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C239" t="s">
-        <v>741</v>
+        <v>793</v>
       </c>
       <c r="D239" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6116,13 +6308,13 @@
         <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="C240" t="s">
-        <v>741</v>
+        <v>793</v>
       </c>
       <c r="D240" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6130,13 +6322,13 @@
         <v>229</v>
       </c>
       <c r="B241" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="C241" t="s">
-        <v>741</v>
+        <v>793</v>
       </c>
       <c r="D241" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6144,13 +6336,13 @@
         <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C242" t="s">
-        <v>742</v>
+        <v>794</v>
       </c>
       <c r="D242" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6158,13 +6350,13 @@
         <v>231</v>
       </c>
       <c r="B243" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="C243" t="s">
-        <v>742</v>
+        <v>794</v>
       </c>
       <c r="D243" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6172,13 +6364,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="C244" t="s">
-        <v>742</v>
+        <v>794</v>
       </c>
       <c r="D244" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6186,13 +6378,13 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="C245" t="s">
-        <v>743</v>
+        <v>795</v>
       </c>
       <c r="D245" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6200,13 +6392,13 @@
         <v>234</v>
       </c>
       <c r="B246" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="C246" t="s">
-        <v>743</v>
+        <v>795</v>
       </c>
       <c r="D246" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6214,13 +6406,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C247" t="s">
-        <v>743</v>
+        <v>795</v>
       </c>
       <c r="D247" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6228,13 +6420,13 @@
         <v>236</v>
       </c>
       <c r="B248" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C248" t="s">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="D248" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6242,13 +6434,13 @@
         <v>237</v>
       </c>
       <c r="B249" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C249" t="s">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="D249" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6256,13 +6448,13 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="C250" t="s">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="D250" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6270,13 +6462,13 @@
         <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C251" t="s">
-        <v>745</v>
+        <v>797</v>
       </c>
       <c r="D251" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6284,13 +6476,13 @@
         <v>240</v>
       </c>
       <c r="B252" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="C252" t="s">
-        <v>745</v>
+        <v>797</v>
       </c>
       <c r="D252" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6298,13 +6490,13 @@
         <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>797</v>
       </c>
       <c r="D253" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6312,13 +6504,13 @@
         <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C254" t="s">
-        <v>746</v>
+        <v>798</v>
       </c>
       <c r="D254" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6326,13 +6518,13 @@
         <v>243</v>
       </c>
       <c r="B255" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C255" t="s">
-        <v>746</v>
+        <v>798</v>
       </c>
       <c r="D255" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6340,13 +6532,13 @@
         <v>244</v>
       </c>
       <c r="B256" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="C256" t="s">
-        <v>746</v>
+        <v>798</v>
       </c>
       <c r="D256" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6354,13 +6546,13 @@
         <v>245</v>
       </c>
       <c r="B257" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="C257" t="s">
-        <v>747</v>
+        <v>799</v>
       </c>
       <c r="D257" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6368,13 +6560,13 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C258" t="s">
-        <v>747</v>
+        <v>799</v>
       </c>
       <c r="D258" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6382,13 +6574,13 @@
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="C259" t="s">
-        <v>747</v>
+        <v>799</v>
       </c>
       <c r="D259" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6396,13 +6588,13 @@
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="C260" t="s">
-        <v>748</v>
+        <v>800</v>
       </c>
       <c r="D260" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6410,13 +6602,13 @@
         <v>43</v>
       </c>
       <c r="B261" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C261" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="D261" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6424,13 +6616,13 @@
         <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C262" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="D262" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6438,13 +6630,13 @@
         <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="C263" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="D263" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6452,13 +6644,13 @@
         <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C264" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="D264" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6466,13 +6658,13 @@
         <v>250</v>
       </c>
       <c r="B265" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C265" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="D265" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6480,13 +6672,13 @@
         <v>251</v>
       </c>
       <c r="B266" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="C266" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="D266" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6494,13 +6686,13 @@
         <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="C267" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="D267" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6508,13 +6700,13 @@
         <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C268" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="D268" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6522,13 +6714,13 @@
         <v>253</v>
       </c>
       <c r="B269" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="C269" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="D269" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6536,13 +6728,13 @@
         <v>48</v>
       </c>
       <c r="B270" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="C270" t="s">
-        <v>752</v>
+        <v>804</v>
       </c>
       <c r="D270" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6550,13 +6742,13 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="C271" t="s">
-        <v>752</v>
+        <v>804</v>
       </c>
       <c r="D271" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6564,13 +6756,13 @@
         <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="C272" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
       <c r="D272" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6578,13 +6770,13 @@
         <v>255</v>
       </c>
       <c r="B273" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="C273" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
       <c r="D273" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6592,13 +6784,13 @@
         <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="C274" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
       <c r="D274" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6606,13 +6798,13 @@
         <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="C275" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="D275" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6620,13 +6812,13 @@
         <v>257</v>
       </c>
       <c r="B276" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="C276" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="D276" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6634,13 +6826,13 @@
         <v>258</v>
       </c>
       <c r="B277" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C277" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="D277" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6648,13 +6840,13 @@
         <v>50</v>
       </c>
       <c r="B278" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C278" t="s">
-        <v>755</v>
+        <v>807</v>
       </c>
       <c r="D278" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6662,13 +6854,13 @@
         <v>259</v>
       </c>
       <c r="B279" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="C279" t="s">
-        <v>755</v>
+        <v>807</v>
       </c>
       <c r="D279" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6676,13 +6868,13 @@
         <v>260</v>
       </c>
       <c r="B280" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C280" t="s">
-        <v>755</v>
+        <v>807</v>
       </c>
       <c r="D280" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6690,13 +6882,13 @@
         <v>56</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C281" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="D281" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6704,13 +6896,13 @@
         <v>261</v>
       </c>
       <c r="B282" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C282" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="D282" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6718,13 +6910,13 @@
         <v>262</v>
       </c>
       <c r="B283" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="C283" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="D283" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6732,13 +6924,13 @@
         <v>263</v>
       </c>
       <c r="B284" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="C284" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="D284" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6746,13 +6938,13 @@
         <v>264</v>
       </c>
       <c r="B285" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C285" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="D285" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6760,13 +6952,13 @@
         <v>265</v>
       </c>
       <c r="B286" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="C286" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="D286" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6774,13 +6966,13 @@
         <v>266</v>
       </c>
       <c r="B287" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C287" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="D287" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6788,13 +6980,13 @@
         <v>267</v>
       </c>
       <c r="B288" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C288" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="D288" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6802,13 +6994,13 @@
         <v>268</v>
       </c>
       <c r="B289" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="C289" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="D289" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6816,13 +7008,13 @@
         <v>269</v>
       </c>
       <c r="B290" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="C290" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="D290" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6830,13 +7022,13 @@
         <v>270</v>
       </c>
       <c r="B291" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="C291" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="D291" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6844,13 +7036,13 @@
         <v>271</v>
       </c>
       <c r="B292" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C292" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="D292" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6858,13 +7050,13 @@
         <v>62</v>
       </c>
       <c r="B293" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="C293" t="s">
-        <v>760</v>
+        <v>812</v>
       </c>
       <c r="D293" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6872,13 +7064,13 @@
         <v>272</v>
       </c>
       <c r="B294" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="C294" t="s">
-        <v>760</v>
+        <v>812</v>
       </c>
       <c r="D294" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6886,13 +7078,13 @@
         <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="C295" t="s">
-        <v>760</v>
+        <v>812</v>
       </c>
       <c r="D295" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6900,13 +7092,13 @@
         <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C296" t="s">
-        <v>761</v>
+        <v>813</v>
       </c>
       <c r="D296" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6914,13 +7106,13 @@
         <v>274</v>
       </c>
       <c r="B297" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C297" t="s">
-        <v>761</v>
+        <v>813</v>
       </c>
       <c r="D297" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6928,13 +7120,13 @@
         <v>275</v>
       </c>
       <c r="B298" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="C298" t="s">
-        <v>761</v>
+        <v>813</v>
       </c>
       <c r="D298" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6942,13 +7134,13 @@
         <v>67</v>
       </c>
       <c r="B299" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C299" t="s">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="D299" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6956,13 +7148,13 @@
         <v>276</v>
       </c>
       <c r="B300" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="C300" t="s">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="D300" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6970,13 +7162,13 @@
         <v>277</v>
       </c>
       <c r="B301" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C301" t="s">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="D301" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6984,13 +7176,13 @@
         <v>278</v>
       </c>
       <c r="B302" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="C302" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="D302" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6998,13 +7190,13 @@
         <v>279</v>
       </c>
       <c r="B303" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="C303" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="D303" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7012,13 +7204,13 @@
         <v>280</v>
       </c>
       <c r="B304" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C304" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="D304" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7026,13 +7218,13 @@
         <v>281</v>
       </c>
       <c r="B305" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="C305" t="s">
-        <v>764</v>
+        <v>816</v>
       </c>
       <c r="D305" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7040,13 +7232,13 @@
         <v>282</v>
       </c>
       <c r="B306" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="C306" t="s">
-        <v>764</v>
+        <v>816</v>
       </c>
       <c r="D306" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7054,13 +7246,13 @@
         <v>283</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="C307" t="s">
-        <v>764</v>
+        <v>816</v>
       </c>
       <c r="D307" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7068,13 +7260,13 @@
         <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="C308" t="s">
-        <v>765</v>
+        <v>817</v>
       </c>
       <c r="D308" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7082,13 +7274,13 @@
         <v>285</v>
       </c>
       <c r="B309" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="C309" t="s">
-        <v>765</v>
+        <v>817</v>
       </c>
       <c r="D309" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7096,13 +7288,13 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="C310" t="s">
-        <v>765</v>
+        <v>817</v>
       </c>
       <c r="D310" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7110,13 +7302,13 @@
         <v>287</v>
       </c>
       <c r="B311" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="C311" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="D311" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7124,13 +7316,13 @@
         <v>288</v>
       </c>
       <c r="B312" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="C312" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="D312" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7138,13 +7330,13 @@
         <v>289</v>
       </c>
       <c r="B313" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="C313" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="D313" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7152,13 +7344,13 @@
         <v>68</v>
       </c>
       <c r="B314" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C314" t="s">
-        <v>767</v>
+        <v>819</v>
       </c>
       <c r="D314" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7166,13 +7358,13 @@
         <v>290</v>
       </c>
       <c r="B315" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C315" t="s">
-        <v>767</v>
+        <v>819</v>
       </c>
       <c r="D315" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7180,13 +7372,13 @@
         <v>291</v>
       </c>
       <c r="B316" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C316" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="D316" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7194,13 +7386,13 @@
         <v>292</v>
       </c>
       <c r="B317" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="C317" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="D317" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7208,13 +7400,13 @@
         <v>70</v>
       </c>
       <c r="B318" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C318" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="D318" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7222,13 +7414,13 @@
         <v>293</v>
       </c>
       <c r="B319" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="C319" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="D319" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7236,13 +7428,13 @@
         <v>294</v>
       </c>
       <c r="B320" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="C320" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="D320" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7250,13 +7442,13 @@
         <v>295</v>
       </c>
       <c r="B321" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="C321" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="D321" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7264,13 +7456,13 @@
         <v>296</v>
       </c>
       <c r="B322" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="C322" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="D322" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7278,13 +7470,13 @@
         <v>297</v>
       </c>
       <c r="B323" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="C323" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="D323" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7292,13 +7484,13 @@
         <v>298</v>
       </c>
       <c r="B324" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="C324" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="D324" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7306,13 +7498,13 @@
         <v>299</v>
       </c>
       <c r="B325" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="C325" t="s">
-        <v>771</v>
+        <v>823</v>
       </c>
       <c r="D325" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7320,13 +7512,13 @@
         <v>300</v>
       </c>
       <c r="B326" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="C326" t="s">
-        <v>771</v>
+        <v>823</v>
       </c>
       <c r="D326" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7334,13 +7526,13 @@
         <v>301</v>
       </c>
       <c r="B327" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="C327" t="s">
-        <v>771</v>
+        <v>823</v>
       </c>
       <c r="D327" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7348,13 +7540,13 @@
         <v>302</v>
       </c>
       <c r="B328" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="C328" t="s">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="D328" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7362,13 +7554,13 @@
         <v>303</v>
       </c>
       <c r="B329" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C329" t="s">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="D329" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7376,13 +7568,13 @@
         <v>304</v>
       </c>
       <c r="B330" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C330" t="s">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="D330" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7390,13 +7582,13 @@
         <v>305</v>
       </c>
       <c r="B331" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="C331" t="s">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="D331" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7404,13 +7596,13 @@
         <v>306</v>
       </c>
       <c r="B332" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="C332" t="s">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="D332" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7418,13 +7610,13 @@
         <v>307</v>
       </c>
       <c r="B333" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="C333" t="s">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="D333" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7432,13 +7624,13 @@
         <v>308</v>
       </c>
       <c r="B334" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="C334" t="s">
-        <v>774</v>
+        <v>826</v>
       </c>
       <c r="D334" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7446,13 +7638,13 @@
         <v>309</v>
       </c>
       <c r="B335" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="C335" t="s">
-        <v>774</v>
+        <v>826</v>
       </c>
       <c r="D335" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7460,13 +7652,13 @@
         <v>310</v>
       </c>
       <c r="B336" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C336" t="s">
-        <v>774</v>
+        <v>826</v>
       </c>
       <c r="D336" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7474,13 +7666,13 @@
         <v>311</v>
       </c>
       <c r="B337" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="C337" t="s">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="D337" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7488,13 +7680,13 @@
         <v>312</v>
       </c>
       <c r="B338" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="C338" t="s">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="D338" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7502,13 +7694,13 @@
         <v>313</v>
       </c>
       <c r="B339" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="C339" t="s">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="D339" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7516,13 +7708,13 @@
         <v>314</v>
       </c>
       <c r="B340" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="C340" t="s">
-        <v>776</v>
+        <v>828</v>
       </c>
       <c r="D340" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7530,13 +7722,13 @@
         <v>315</v>
       </c>
       <c r="B341" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="C341" t="s">
-        <v>776</v>
+        <v>828</v>
       </c>
       <c r="D341" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7544,13 +7736,13 @@
         <v>316</v>
       </c>
       <c r="B342" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="C342" t="s">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="D342" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7558,13 +7750,13 @@
         <v>317</v>
       </c>
       <c r="B343" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="C343" t="s">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="D343" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7572,13 +7764,13 @@
         <v>318</v>
       </c>
       <c r="B344" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C344" t="s">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="D344" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7586,13 +7778,13 @@
         <v>319</v>
       </c>
       <c r="B345" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="C345" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="D345" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7600,13 +7792,13 @@
         <v>320</v>
       </c>
       <c r="B346" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="C346" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="D346" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -7614,13 +7806,13 @@
         <v>321</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="C347" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="D347" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -7628,13 +7820,13 @@
         <v>322</v>
       </c>
       <c r="B348" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="C348" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="D348" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -7642,13 +7834,13 @@
         <v>323</v>
       </c>
       <c r="B349" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="C349" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="D349" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -7656,13 +7848,13 @@
         <v>324</v>
       </c>
       <c r="B350" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="C350" t="s">
-        <v>779</v>
+        <v>831</v>
       </c>
       <c r="D350" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -7670,13 +7862,13 @@
         <v>325</v>
       </c>
       <c r="B351" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="C351" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="D351" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7684,13 +7876,13 @@
         <v>326</v>
       </c>
       <c r="B352" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="C352" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="D352" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7698,13 +7890,13 @@
         <v>327</v>
       </c>
       <c r="B353" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="C353" t="s">
-        <v>780</v>
+        <v>832</v>
       </c>
       <c r="D353" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7712,13 +7904,13 @@
         <v>328</v>
       </c>
       <c r="B354" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="C354" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="D354" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7726,13 +7918,13 @@
         <v>329</v>
       </c>
       <c r="B355" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="C355" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="D355" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7740,13 +7932,13 @@
         <v>330</v>
       </c>
       <c r="B356" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="C356" t="s">
-        <v>781</v>
+        <v>833</v>
       </c>
       <c r="D356" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -7754,13 +7946,13 @@
         <v>331</v>
       </c>
       <c r="B357" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="C357" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="D357" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -7768,13 +7960,13 @@
         <v>332</v>
       </c>
       <c r="B358" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="C358" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="D358" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7782,13 +7974,475 @@
         <v>333</v>
       </c>
       <c r="B359" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="C359" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="D359" t="s">
-        <v>796</v>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>214</v>
+      </c>
+      <c r="B360" t="s">
+        <v>569</v>
+      </c>
+      <c r="C360" t="s">
+        <v>835</v>
+      </c>
+      <c r="D360" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>334</v>
+      </c>
+      <c r="B361" t="s">
+        <v>685</v>
+      </c>
+      <c r="C361" t="s">
+        <v>835</v>
+      </c>
+      <c r="D361" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>335</v>
+      </c>
+      <c r="B362" t="s">
+        <v>686</v>
+      </c>
+      <c r="C362" t="s">
+        <v>835</v>
+      </c>
+      <c r="D362" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>336</v>
+      </c>
+      <c r="B363" t="s">
+        <v>687</v>
+      </c>
+      <c r="C363" t="s">
+        <v>836</v>
+      </c>
+      <c r="D363" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>337</v>
+      </c>
+      <c r="B364" t="s">
+        <v>688</v>
+      </c>
+      <c r="C364" t="s">
+        <v>836</v>
+      </c>
+      <c r="D364" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>214</v>
+      </c>
+      <c r="B365" t="s">
+        <v>569</v>
+      </c>
+      <c r="C365" t="s">
+        <v>836</v>
+      </c>
+      <c r="D365" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>338</v>
+      </c>
+      <c r="B366" t="s">
+        <v>689</v>
+      </c>
+      <c r="C366" t="s">
+        <v>837</v>
+      </c>
+      <c r="D366" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>339</v>
+      </c>
+      <c r="B367" t="s">
+        <v>690</v>
+      </c>
+      <c r="C367" t="s">
+        <v>837</v>
+      </c>
+      <c r="D367" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>340</v>
+      </c>
+      <c r="B368" t="s">
+        <v>691</v>
+      </c>
+      <c r="C368" t="s">
+        <v>837</v>
+      </c>
+      <c r="D368" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>341</v>
+      </c>
+      <c r="B369" t="s">
+        <v>692</v>
+      </c>
+      <c r="C369" t="s">
+        <v>838</v>
+      </c>
+      <c r="D369" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>342</v>
+      </c>
+      <c r="B370" t="s">
+        <v>693</v>
+      </c>
+      <c r="C370" t="s">
+        <v>838</v>
+      </c>
+      <c r="D370" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>343</v>
+      </c>
+      <c r="B371" t="s">
+        <v>694</v>
+      </c>
+      <c r="C371" t="s">
+        <v>838</v>
+      </c>
+      <c r="D371" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>218</v>
+      </c>
+      <c r="B372" t="s">
+        <v>572</v>
+      </c>
+      <c r="C372" t="s">
+        <v>839</v>
+      </c>
+      <c r="D372" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>344</v>
+      </c>
+      <c r="B373" t="s">
+        <v>695</v>
+      </c>
+      <c r="C373" t="s">
+        <v>839</v>
+      </c>
+      <c r="D373" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>345</v>
+      </c>
+      <c r="B374" t="s">
+        <v>696</v>
+      </c>
+      <c r="C374" t="s">
+        <v>839</v>
+      </c>
+      <c r="D374" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>218</v>
+      </c>
+      <c r="B375" t="s">
+        <v>572</v>
+      </c>
+      <c r="C375" t="s">
+        <v>840</v>
+      </c>
+      <c r="D375" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>346</v>
+      </c>
+      <c r="B376" t="s">
+        <v>697</v>
+      </c>
+      <c r="C376" t="s">
+        <v>840</v>
+      </c>
+      <c r="D376" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>347</v>
+      </c>
+      <c r="B377" t="s">
+        <v>698</v>
+      </c>
+      <c r="C377" t="s">
+        <v>840</v>
+      </c>
+      <c r="D377" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>221</v>
+      </c>
+      <c r="B378" t="s">
+        <v>575</v>
+      </c>
+      <c r="C378" t="s">
+        <v>841</v>
+      </c>
+      <c r="D378" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>348</v>
+      </c>
+      <c r="B379" t="s">
+        <v>699</v>
+      </c>
+      <c r="C379" t="s">
+        <v>841</v>
+      </c>
+      <c r="D379" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>349</v>
+      </c>
+      <c r="B380" t="s">
+        <v>700</v>
+      </c>
+      <c r="C380" t="s">
+        <v>841</v>
+      </c>
+      <c r="D380" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>350</v>
+      </c>
+      <c r="B381" t="s">
+        <v>701</v>
+      </c>
+      <c r="C381" t="s">
+        <v>842</v>
+      </c>
+      <c r="D381" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>351</v>
+      </c>
+      <c r="B382" t="s">
+        <v>702</v>
+      </c>
+      <c r="C382" t="s">
+        <v>842</v>
+      </c>
+      <c r="D382" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>352</v>
+      </c>
+      <c r="B383" t="s">
+        <v>703</v>
+      </c>
+      <c r="C383" t="s">
+        <v>842</v>
+      </c>
+      <c r="D383" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>353</v>
+      </c>
+      <c r="B384" t="s">
+        <v>704</v>
+      </c>
+      <c r="C384" t="s">
+        <v>843</v>
+      </c>
+      <c r="D384" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>354</v>
+      </c>
+      <c r="B385" t="s">
+        <v>705</v>
+      </c>
+      <c r="C385" t="s">
+        <v>843</v>
+      </c>
+      <c r="D385" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>355</v>
+      </c>
+      <c r="B386" t="s">
+        <v>706</v>
+      </c>
+      <c r="C386" t="s">
+        <v>843</v>
+      </c>
+      <c r="D386" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>356</v>
+      </c>
+      <c r="B387" t="s">
+        <v>707</v>
+      </c>
+      <c r="C387" t="s">
+        <v>844</v>
+      </c>
+      <c r="D387" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>223</v>
+      </c>
+      <c r="B388" t="s">
+        <v>577</v>
+      </c>
+      <c r="C388" t="s">
+        <v>844</v>
+      </c>
+      <c r="D388" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>357</v>
+      </c>
+      <c r="B389" t="s">
+        <v>708</v>
+      </c>
+      <c r="C389" t="s">
+        <v>844</v>
+      </c>
+      <c r="D389" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>358</v>
+      </c>
+      <c r="B390" t="s">
+        <v>709</v>
+      </c>
+      <c r="C390" t="s">
+        <v>845</v>
+      </c>
+      <c r="D390" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>224</v>
+      </c>
+      <c r="B391" t="s">
+        <v>578</v>
+      </c>
+      <c r="C391" t="s">
+        <v>845</v>
+      </c>
+      <c r="D391" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>359</v>
+      </c>
+      <c r="B392" t="s">
+        <v>710</v>
+      </c>
+      <c r="C392" t="s">
+        <v>845</v>
+      </c>
+      <c r="D392" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
